--- a/水泥.excel/1104/1104(102.1~105.4)3.xlsx
+++ b/水泥.excel/1104/1104(102.1~105.4)3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>金額_x</t>
   </si>
@@ -115,1725 +115,129 @@
     <t>不動產、廠房及設備</t>
   </si>
   <si>
-    <t>5,801,894</t>
-  </si>
-  <si>
-    <t>5,822,270</t>
-  </si>
-  <si>
-    <t>5,838,809</t>
-  </si>
-  <si>
-    <t>5,846,863</t>
-  </si>
-  <si>
-    <t>5,853,755</t>
-  </si>
-  <si>
-    <t>5,827,167</t>
-  </si>
-  <si>
-    <t>5,759,633</t>
-  </si>
-  <si>
-    <t>5,736,238</t>
-  </si>
-  <si>
-    <t>5,690,994</t>
-  </si>
-  <si>
-    <t>5,684,691</t>
-  </si>
-  <si>
-    <t>5,608,698</t>
-  </si>
-  <si>
-    <t>5,587,635</t>
-  </si>
-  <si>
-    <t>5,569,962</t>
-  </si>
-  <si>
-    <t>5,700,593</t>
-  </si>
-  <si>
-    <t>5,723,988</t>
-  </si>
-  <si>
-    <t>5,718,489</t>
-  </si>
-  <si>
     <t>保留盈餘合計</t>
   </si>
   <si>
-    <t>6,765,931</t>
-  </si>
-  <si>
-    <t>6,648,450</t>
-  </si>
-  <si>
-    <t>6,886,689</t>
-  </si>
-  <si>
-    <t>7,271,548</t>
-  </si>
-  <si>
-    <t>7,511,209</t>
-  </si>
-  <si>
-    <t>7,294,906</t>
-  </si>
-  <si>
-    <t>7,652,999</t>
-  </si>
-  <si>
-    <t>7,993,017</t>
-  </si>
-  <si>
-    <t>8,248,134</t>
-  </si>
-  <si>
-    <t>7,861,653</t>
-  </si>
-  <si>
-    <t>8,162,274</t>
-  </si>
-  <si>
-    <t>8,638,396</t>
-  </si>
-  <si>
-    <t>8,983,685</t>
-  </si>
-  <si>
-    <t>8,804,918</t>
-  </si>
-  <si>
-    <t>9,160,940</t>
-  </si>
-  <si>
-    <t>9,650,044</t>
-  </si>
-  <si>
     <t>備供出售金融資產－流動淨額</t>
   </si>
   <si>
-    <t>346,702</t>
-  </si>
-  <si>
-    <t>510,440</t>
-  </si>
-  <si>
-    <t>429,275</t>
-  </si>
-  <si>
-    <t>492,613</t>
-  </si>
-  <si>
-    <t>563,320</t>
-  </si>
-  <si>
-    <t>506,107</t>
-  </si>
-  <si>
-    <t>476,880</t>
-  </si>
-  <si>
-    <t>513,323</t>
-  </si>
-  <si>
-    <t>537,062</t>
-  </si>
-  <si>
-    <t>1,323,877</t>
-  </si>
-  <si>
-    <t>1,047,012</t>
-  </si>
-  <si>
-    <t>1,033,792</t>
-  </si>
-  <si>
-    <t>1,139,704</t>
-  </si>
-  <si>
-    <t>1,132,780</t>
-  </si>
-  <si>
-    <t>1,107,688</t>
-  </si>
-  <si>
-    <t>1,966,169</t>
-  </si>
-  <si>
     <t>備供出售金融資產－非流動淨額</t>
   </si>
   <si>
-    <t>2,209,506</t>
-  </si>
-  <si>
-    <t>2,210,447</t>
-  </si>
-  <si>
-    <t>2,291,373</t>
-  </si>
-  <si>
-    <t>2,415,438</t>
-  </si>
-  <si>
-    <t>2,493,303</t>
-  </si>
-  <si>
-    <t>2,615,835</t>
-  </si>
-  <si>
-    <t>2,620,991</t>
-  </si>
-  <si>
-    <t>2,626,208</t>
-  </si>
-  <si>
-    <t>2,737,320</t>
-  </si>
-  <si>
-    <t>1,977,691</t>
-  </si>
-  <si>
-    <t>1,710,009</t>
-  </si>
-  <si>
-    <t>1,713,104</t>
-  </si>
-  <si>
-    <t>1,788,921</t>
-  </si>
-  <si>
-    <t>1,683,705</t>
-  </si>
-  <si>
-    <t>1,646,570</t>
-  </si>
-  <si>
-    <t>787,821</t>
-  </si>
-  <si>
     <t>其他應付款</t>
   </si>
   <si>
-    <t>173,857</t>
-  </si>
-  <si>
-    <t>670,350</t>
-  </si>
-  <si>
-    <t>184,996</t>
-  </si>
-  <si>
-    <t>206,504</t>
-  </si>
-  <si>
-    <t>189,167</t>
-  </si>
-  <si>
-    <t>755,964</t>
-  </si>
-  <si>
-    <t>198,872</t>
-  </si>
-  <si>
-    <t>222,799</t>
-  </si>
-  <si>
-    <t>185,864</t>
-  </si>
-  <si>
-    <t>797,786</t>
-  </si>
-  <si>
-    <t>191,532</t>
-  </si>
-  <si>
-    <t>218,104</t>
-  </si>
-  <si>
-    <t>188,547</t>
-  </si>
-  <si>
-    <t>830,626</t>
-  </si>
-  <si>
-    <t>218,894</t>
-  </si>
-  <si>
-    <t>238,149</t>
-  </si>
-  <si>
     <t>其他應收款淨額</t>
   </si>
   <si>
-    <t>8,744</t>
-  </si>
-  <si>
-    <t>289,758</t>
-  </si>
-  <si>
-    <t>23,714</t>
-  </si>
-  <si>
-    <t>14,626</t>
-  </si>
-  <si>
-    <t>15,079</t>
-  </si>
-  <si>
-    <t>317,446</t>
-  </si>
-  <si>
-    <t>19,887</t>
-  </si>
-  <si>
-    <t>2,543</t>
-  </si>
-  <si>
-    <t>7,431</t>
-  </si>
-  <si>
-    <t>416,583</t>
-  </si>
-  <si>
-    <t>6,766</t>
-  </si>
-  <si>
-    <t>4,768</t>
-  </si>
-  <si>
-    <t>12,487</t>
-  </si>
-  <si>
-    <t>453,568</t>
-  </si>
-  <si>
-    <t>12,794</t>
-  </si>
-  <si>
-    <t>4,038</t>
-  </si>
-  <si>
     <t>其他權益合計</t>
   </si>
   <si>
-    <t>723,700</t>
-  </si>
-  <si>
-    <t>706,162</t>
-  </si>
-  <si>
-    <t>648,474</t>
-  </si>
-  <si>
-    <t>1,029,059</t>
-  </si>
-  <si>
-    <t>1,159,736</t>
-  </si>
-  <si>
-    <t>1,109,700</t>
-  </si>
-  <si>
-    <t>1,171,403</t>
-  </si>
-  <si>
-    <t>1,460,564</t>
-  </si>
-  <si>
-    <t>1,514,718</t>
-  </si>
-  <si>
-    <t>1,444,872</t>
-  </si>
-  <si>
-    <t>1,351,094</t>
-  </si>
-  <si>
-    <t>879,385</t>
-  </si>
-  <si>
-    <t>899,463</t>
-  </si>
-  <si>
-    <t>836,978</t>
-  </si>
-  <si>
-    <t>525,302</t>
-  </si>
-  <si>
-    <t>221,727</t>
-  </si>
-  <si>
     <t>其他流動負債</t>
   </si>
   <si>
-    <t>25,126</t>
-  </si>
-  <si>
-    <t>24,426</t>
-  </si>
-  <si>
-    <t>21,280</t>
-  </si>
-  <si>
-    <t>23,107</t>
-  </si>
-  <si>
-    <t>31,116</t>
-  </si>
-  <si>
-    <t>36,315</t>
-  </si>
-  <si>
-    <t>37,936</t>
-  </si>
-  <si>
-    <t>25,889</t>
-  </si>
-  <si>
-    <t>33,251</t>
-  </si>
-  <si>
-    <t>30,956</t>
-  </si>
-  <si>
-    <t>33,834</t>
-  </si>
-  <si>
-    <t>26,148</t>
-  </si>
-  <si>
-    <t>35,091</t>
-  </si>
-  <si>
-    <t>34,695</t>
-  </si>
-  <si>
-    <t>37,841</t>
-  </si>
-  <si>
-    <t>25,751</t>
-  </si>
-  <si>
     <t>其他流動資產</t>
   </si>
   <si>
-    <t>128,043</t>
-  </si>
-  <si>
-    <t>145,057</t>
-  </si>
-  <si>
-    <t>72,027</t>
-  </si>
-  <si>
-    <t>67,955</t>
-  </si>
-  <si>
-    <t>85,500</t>
-  </si>
-  <si>
-    <t>126,427</t>
-  </si>
-  <si>
-    <t>109,641</t>
-  </si>
-  <si>
-    <t>115,112</t>
-  </si>
-  <si>
-    <t>131,056</t>
-  </si>
-  <si>
-    <t>120,501</t>
-  </si>
-  <si>
-    <t>123,028</t>
-  </si>
-  <si>
-    <t>129,972</t>
-  </si>
-  <si>
-    <t>134,872</t>
-  </si>
-  <si>
-    <t>144,588</t>
-  </si>
-  <si>
-    <t>137,749</t>
-  </si>
-  <si>
-    <t>96,863</t>
-  </si>
-  <si>
     <t>其他非流動負債</t>
   </si>
   <si>
-    <t>342,006</t>
-  </si>
-  <si>
-    <t>351,740</t>
-  </si>
-  <si>
-    <t>342,438</t>
-  </si>
-  <si>
-    <t>317,153</t>
-  </si>
-  <si>
-    <t>313,512</t>
-  </si>
-  <si>
-    <t>315,703</t>
-  </si>
-  <si>
-    <t>317,600</t>
-  </si>
-  <si>
-    <t>332,334</t>
-  </si>
-  <si>
-    <t>333,153</t>
-  </si>
-  <si>
-    <t>323,727</t>
-  </si>
-  <si>
-    <t>322,076</t>
-  </si>
-  <si>
-    <t>325,965</t>
-  </si>
-  <si>
-    <t>199,666</t>
-  </si>
-  <si>
-    <t>200,969</t>
-  </si>
-  <si>
-    <t>202,143</t>
-  </si>
-  <si>
-    <t>198,377</t>
-  </si>
-  <si>
     <t>其他非流動資產</t>
   </si>
   <si>
-    <t>117,000</t>
-  </si>
-  <si>
-    <t>72,140</t>
-  </si>
-  <si>
-    <t>109,579</t>
-  </si>
-  <si>
-    <t>126,578</t>
-  </si>
-  <si>
-    <t>134,587</t>
-  </si>
-  <si>
-    <t>154,412</t>
-  </si>
-  <si>
-    <t>174,972</t>
-  </si>
-  <si>
-    <t>260,232</t>
-  </si>
-  <si>
-    <t>290,180</t>
-  </si>
-  <si>
-    <t>379,012</t>
-  </si>
-  <si>
-    <t>380,854</t>
-  </si>
-  <si>
-    <t>466,604</t>
-  </si>
-  <si>
-    <t>533,892</t>
-  </si>
-  <si>
-    <t>557,874</t>
-  </si>
-  <si>
-    <t>642,411</t>
-  </si>
-  <si>
-    <t>647,853</t>
-  </si>
-  <si>
     <t>存貨</t>
   </si>
   <si>
-    <t>256,004</t>
-  </si>
-  <si>
-    <t>307,185</t>
-  </si>
-  <si>
-    <t>348,180</t>
-  </si>
-  <si>
-    <t>340,696</t>
-  </si>
-  <si>
-    <t>305,938</t>
-  </si>
-  <si>
-    <t>357,157</t>
-  </si>
-  <si>
-    <t>313,738</t>
-  </si>
-  <si>
-    <t>326,165</t>
-  </si>
-  <si>
-    <t>330,309</t>
-  </si>
-  <si>
-    <t>317,244</t>
-  </si>
-  <si>
-    <t>286,257</t>
-  </si>
-  <si>
-    <t>338,241</t>
-  </si>
-  <si>
-    <t>297,115</t>
-  </si>
-  <si>
-    <t>300,765</t>
-  </si>
-  <si>
-    <t>314,201</t>
-  </si>
-  <si>
-    <t>309,386</t>
-  </si>
-  <si>
     <t>待出售非流動資產（淨額）</t>
   </si>
   <si>
-    <t>86,646</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>待分配股票股利</t>
   </si>
   <si>
-    <t>120,778</t>
-  </si>
-  <si>
-    <t>123,194</t>
-  </si>
-  <si>
-    <t>62,829</t>
-  </si>
-  <si>
     <t>待註銷股本股數（單位：股）</t>
   </si>
   <si>
     <t>應付帳款</t>
   </si>
   <si>
-    <t>250,513</t>
-  </si>
-  <si>
-    <t>264,674</t>
-  </si>
-  <si>
-    <t>281,213</t>
-  </si>
-  <si>
-    <t>322,524</t>
-  </si>
-  <si>
-    <t>259,195</t>
-  </si>
-  <si>
-    <t>303,517</t>
-  </si>
-  <si>
-    <t>282,767</t>
-  </si>
-  <si>
-    <t>301,031</t>
-  </si>
-  <si>
-    <t>274,607</t>
-  </si>
-  <si>
-    <t>263,762</t>
-  </si>
-  <si>
-    <t>205,375</t>
-  </si>
-  <si>
-    <t>324,555</t>
-  </si>
-  <si>
-    <t>167,953</t>
-  </si>
-  <si>
-    <t>199,559</t>
-  </si>
-  <si>
-    <t>210,071</t>
-  </si>
-  <si>
-    <t>332,737</t>
-  </si>
-  <si>
     <t>應付帳款－關係人</t>
   </si>
   <si>
-    <t>125,586</t>
-  </si>
-  <si>
-    <t>128,130</t>
-  </si>
-  <si>
-    <t>142,408</t>
-  </si>
-  <si>
-    <t>193,002</t>
-  </si>
-  <si>
-    <t>160,034</t>
-  </si>
-  <si>
-    <t>179,847</t>
-  </si>
-  <si>
-    <t>157,411</t>
-  </si>
-  <si>
-    <t>191,727</t>
-  </si>
-  <si>
-    <t>156,812</t>
-  </si>
-  <si>
-    <t>143,866</t>
-  </si>
-  <si>
-    <t>144,980</t>
-  </si>
-  <si>
-    <t>183,793</t>
-  </si>
-  <si>
-    <t>144,848</t>
-  </si>
-  <si>
-    <t>120,588</t>
-  </si>
-  <si>
-    <t>63,645</t>
-  </si>
-  <si>
-    <t>124,150</t>
-  </si>
-  <si>
     <t>應付短期票券</t>
   </si>
   <si>
-    <t>199,833</t>
-  </si>
-  <si>
-    <t>59,933</t>
-  </si>
-  <si>
-    <t>49,941</t>
-  </si>
-  <si>
-    <t>249,816</t>
-  </si>
-  <si>
-    <t>49,937</t>
-  </si>
-  <si>
-    <t>609,627</t>
-  </si>
-  <si>
-    <t>349,761</t>
-  </si>
-  <si>
-    <t>749,429</t>
-  </si>
-  <si>
-    <t>249,752</t>
-  </si>
-  <si>
-    <t>849,249</t>
-  </si>
-  <si>
-    <t>679,561</t>
-  </si>
-  <si>
-    <t>999,334</t>
-  </si>
-  <si>
-    <t>549,488</t>
-  </si>
-  <si>
-    <t>989,070</t>
-  </si>
-  <si>
-    <t>589,654</t>
-  </si>
-  <si>
     <t>應付票據</t>
   </si>
   <si>
-    <t>139,107</t>
-  </si>
-  <si>
-    <t>194,543</t>
-  </si>
-  <si>
-    <t>202,445</t>
-  </si>
-  <si>
-    <t>229,380</t>
-  </si>
-  <si>
-    <t>178,713</t>
-  </si>
-  <si>
-    <t>190,127</t>
-  </si>
-  <si>
-    <t>178,920</t>
-  </si>
-  <si>
-    <t>202,219</t>
-  </si>
-  <si>
-    <t>167,793</t>
-  </si>
-  <si>
-    <t>127,470</t>
-  </si>
-  <si>
-    <t>104,674</t>
-  </si>
-  <si>
-    <t>123,637</t>
-  </si>
-  <si>
-    <t>69,851</t>
-  </si>
-  <si>
-    <t>127,774</t>
-  </si>
-  <si>
-    <t>114,626</t>
-  </si>
-  <si>
-    <t>107,644</t>
-  </si>
-  <si>
     <t>應付票據－關係人</t>
   </si>
   <si>
-    <t>22,216</t>
-  </si>
-  <si>
-    <t>29,538</t>
-  </si>
-  <si>
-    <t>25,725</t>
-  </si>
-  <si>
-    <t>38,895</t>
-  </si>
-  <si>
-    <t>26,832</t>
-  </si>
-  <si>
-    <t>42,059</t>
-  </si>
-  <si>
-    <t>37,819</t>
-  </si>
-  <si>
-    <t>43,929</t>
-  </si>
-  <si>
-    <t>29,375</t>
-  </si>
-  <si>
-    <t>48,697</t>
-  </si>
-  <si>
-    <t>57,674</t>
-  </si>
-  <si>
-    <t>72,646</t>
-  </si>
-  <si>
-    <t>46,295</t>
-  </si>
-  <si>
-    <t>49,075</t>
-  </si>
-  <si>
-    <t>24,117</t>
-  </si>
-  <si>
-    <t>30,434</t>
-  </si>
-  <si>
     <t>應收帳款淨額</t>
   </si>
   <si>
-    <t>534,003</t>
-  </si>
-  <si>
-    <t>528,017</t>
-  </si>
-  <si>
-    <t>582,705</t>
-  </si>
-  <si>
-    <t>692,760</t>
-  </si>
-  <si>
-    <t>657,929</t>
-  </si>
-  <si>
-    <t>740,635</t>
-  </si>
-  <si>
-    <t>642,661</t>
-  </si>
-  <si>
-    <t>660,834</t>
-  </si>
-  <si>
-    <t>613,073</t>
-  </si>
-  <si>
-    <t>559,628</t>
-  </si>
-  <si>
-    <t>544,521</t>
-  </si>
-  <si>
-    <t>646,840</t>
-  </si>
-  <si>
-    <t>522,652</t>
-  </si>
-  <si>
-    <t>536,117</t>
-  </si>
-  <si>
-    <t>458,343</t>
-  </si>
-  <si>
-    <t>566,391</t>
-  </si>
-  <si>
     <t>應收帳款－關係人淨額</t>
   </si>
   <si>
-    <t>121,260</t>
-  </si>
-  <si>
-    <t>116,768</t>
-  </si>
-  <si>
-    <t>98,591</t>
-  </si>
-  <si>
-    <t>107,885</t>
-  </si>
-  <si>
-    <t>86,699</t>
-  </si>
-  <si>
-    <t>23,043</t>
-  </si>
-  <si>
-    <t>30,993</t>
-  </si>
-  <si>
-    <t>60,791</t>
-  </si>
-  <si>
-    <t>38,434</t>
-  </si>
-  <si>
-    <t>47,454</t>
-  </si>
-  <si>
-    <t>30,884</t>
-  </si>
-  <si>
-    <t>36,910</t>
-  </si>
-  <si>
-    <t>62,553</t>
-  </si>
-  <si>
-    <t>62,874</t>
-  </si>
-  <si>
-    <t>64,934</t>
-  </si>
-  <si>
-    <t>93,562</t>
-  </si>
-  <si>
     <t>應收票據淨額</t>
   </si>
   <si>
-    <t>409,379</t>
-  </si>
-  <si>
-    <t>431,960</t>
-  </si>
-  <si>
-    <t>349,519</t>
-  </si>
-  <si>
-    <t>428,880</t>
-  </si>
-  <si>
-    <t>371,774</t>
-  </si>
-  <si>
-    <t>482,221</t>
-  </si>
-  <si>
-    <t>520,075</t>
-  </si>
-  <si>
-    <t>565,176</t>
-  </si>
-  <si>
-    <t>435,843</t>
-  </si>
-  <si>
-    <t>437,380</t>
-  </si>
-  <si>
-    <t>414,506</t>
-  </si>
-  <si>
-    <t>438,150</t>
-  </si>
-  <si>
-    <t>353,437</t>
-  </si>
-  <si>
-    <t>366,294</t>
-  </si>
-  <si>
-    <t>300,250</t>
-  </si>
-  <si>
-    <t>391,995</t>
-  </si>
-  <si>
     <t>應收票據－關係人淨額</t>
   </si>
   <si>
-    <t>28,761</t>
-  </si>
-  <si>
-    <t>18,629</t>
-  </si>
-  <si>
-    <t>40,032</t>
-  </si>
-  <si>
-    <t>44,173</t>
-  </si>
-  <si>
-    <t>36,546</t>
-  </si>
-  <si>
-    <t>1,997</t>
-  </si>
-  <si>
     <t>投資性不動產淨額</t>
   </si>
   <si>
-    <t>390,701</t>
-  </si>
-  <si>
-    <t>390,339</t>
-  </si>
-  <si>
-    <t>389,978</t>
-  </si>
-  <si>
-    <t>389,617</t>
-  </si>
-  <si>
-    <t>389,256</t>
-  </si>
-  <si>
-    <t>388,895</t>
-  </si>
-  <si>
-    <t>437,248</t>
-  </si>
-  <si>
-    <t>474,170</t>
-  </si>
-  <si>
-    <t>800,496</t>
-  </si>
-  <si>
-    <t>800,014</t>
-  </si>
-  <si>
-    <t>873,536</t>
-  </si>
-  <si>
-    <t>872,799</t>
-  </si>
-  <si>
-    <t>872,060</t>
-  </si>
-  <si>
-    <t>871,334</t>
-  </si>
-  <si>
-    <t>870,596</t>
-  </si>
-  <si>
-    <t>869,853</t>
-  </si>
-  <si>
     <t>採用權益法之投資淨額</t>
   </si>
   <si>
-    <t>5,614,492</t>
-  </si>
-  <si>
-    <t>5,687,254</t>
-  </si>
-  <si>
-    <t>5,819,974</t>
-  </si>
-  <si>
-    <t>6,317,363</t>
-  </si>
-  <si>
-    <t>6,635,961</t>
-  </si>
-  <si>
-    <t>6,623,755</t>
-  </si>
-  <si>
-    <t>7,051,457</t>
-  </si>
-  <si>
-    <t>7,616,978</t>
-  </si>
-  <si>
-    <t>7,778,430</t>
-  </si>
-  <si>
-    <t>7,615,818</t>
-  </si>
-  <si>
-    <t>8,310,366</t>
-  </si>
-  <si>
-    <t>8,277,568</t>
-  </si>
-  <si>
-    <t>8,462,038</t>
-  </si>
-  <si>
-    <t>8,516,598</t>
-  </si>
-  <si>
-    <t>8,556,244</t>
-  </si>
-  <si>
-    <t>8,664,083</t>
-  </si>
-  <si>
     <t>普通股股本</t>
   </si>
   <si>
-    <t>6,038,919</t>
-  </si>
-  <si>
-    <t>6,159,697</t>
-  </si>
-  <si>
-    <t>6,282,891</t>
-  </si>
-  <si>
-    <t>6,345,720</t>
-  </si>
-  <si>
     <t>未分配盈餘（或待彌補虧損）</t>
   </si>
   <si>
-    <t>1,946,096</t>
-  </si>
-  <si>
-    <t>1,887,455</t>
-  </si>
-  <si>
-    <t>2,125,694</t>
-  </si>
-  <si>
-    <t>2,510,553</t>
-  </si>
-  <si>
-    <t>2,750,214</t>
-  </si>
-  <si>
-    <t>2,422,599</t>
-  </si>
-  <si>
-    <t>2,780,692</t>
-  </si>
-  <si>
-    <t>3,120,710</t>
-  </si>
-  <si>
-    <t>3,375,827</t>
-  </si>
-  <si>
-    <t>2,850,088</t>
-  </si>
-  <si>
-    <t>3,150,709</t>
-  </si>
-  <si>
-    <t>3,631,000</t>
-  </si>
-  <si>
-    <t>3,976,289</t>
-  </si>
-  <si>
-    <t>3,658,249</t>
-  </si>
-  <si>
-    <t>4,014,271</t>
-  </si>
-  <si>
-    <t>4,503,375</t>
-  </si>
-  <si>
     <t>本期所得稅負債</t>
   </si>
   <si>
-    <t>89,239</t>
-  </si>
-  <si>
-    <t>101,477</t>
-  </si>
-  <si>
-    <t>113,699</t>
-  </si>
-  <si>
-    <t>125,185</t>
-  </si>
-  <si>
-    <t>125,925</t>
-  </si>
-  <si>
-    <t>132,225</t>
-  </si>
-  <si>
-    <t>153,048</t>
-  </si>
-  <si>
-    <t>170,822</t>
-  </si>
-  <si>
     <t>本期所得稅資產</t>
   </si>
   <si>
-    <t>362</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>3,459</t>
-  </si>
-  <si>
-    <t>3,469</t>
-  </si>
-  <si>
-    <t>3,965</t>
-  </si>
-  <si>
-    <t>3,496</t>
-  </si>
-  <si>
     <t>權益總計</t>
   </si>
   <si>
-    <t>13,731,718</t>
-  </si>
-  <si>
-    <t>13,566,005</t>
-  </si>
-  <si>
-    <t>13,746,849</t>
-  </si>
-  <si>
-    <t>14,539,149</t>
-  </si>
-  <si>
-    <t>14,910,655</t>
-  </si>
-  <si>
-    <t>14,753,150</t>
-  </si>
-  <si>
-    <t>15,172,677</t>
-  </si>
-  <si>
-    <t>15,797,970</t>
-  </si>
-  <si>
-    <t>16,105,747</t>
-  </si>
-  <si>
-    <t>15,760,747</t>
-  </si>
-  <si>
-    <t>15,981,328</t>
-  </si>
-  <si>
-    <t>16,000,386</t>
-  </si>
-  <si>
-    <t>16,363,447</t>
-  </si>
-  <si>
-    <t>16,172,720</t>
-  </si>
-  <si>
-    <t>16,205,886</t>
-  </si>
-  <si>
-    <t>16,396,123</t>
-  </si>
-  <si>
     <t>歸屬於母公司業主之權益合計</t>
   </si>
   <si>
-    <t>13,550,313</t>
-  </si>
-  <si>
-    <t>13,415,294</t>
-  </si>
-  <si>
-    <t>13,595,845</t>
-  </si>
-  <si>
-    <t>14,366,079</t>
-  </si>
-  <si>
-    <t>14,736,417</t>
-  </si>
-  <si>
-    <t>14,590,856</t>
-  </si>
-  <si>
-    <t>15,010,652</t>
-  </si>
-  <si>
-    <t>15,642,277</t>
-  </si>
-  <si>
-    <t>15,951,548</t>
-  </si>
-  <si>
-    <t>15,618,415</t>
-  </si>
-  <si>
-    <t>15,827,753</t>
-  </si>
-  <si>
-    <t>15,849,944</t>
-  </si>
-  <si>
-    <t>16,215,311</t>
-  </si>
-  <si>
-    <t>16,036,888</t>
-  </si>
-  <si>
-    <t>16,081,234</t>
-  </si>
-  <si>
-    <t>16,264,603</t>
-  </si>
-  <si>
     <t>母公司暨子公司所持有之母公司庫藏股股數（單位：股）</t>
   </si>
   <si>
     <t>法定盈餘公積</t>
   </si>
   <si>
-    <t>1,499,835</t>
-  </si>
-  <si>
-    <t>1,571,033</t>
-  </si>
-  <si>
-    <t>1,682,345</t>
-  </si>
-  <si>
-    <t>1,821,603</t>
-  </si>
-  <si>
-    <t>1,960,876</t>
-  </si>
-  <si>
     <t>流動負債合計</t>
   </si>
   <si>
-    <t>1,127,396</t>
-  </si>
-  <si>
-    <t>1,787,638</t>
-  </si>
-  <si>
-    <t>1,519,812</t>
-  </si>
-  <si>
-    <t>1,700,449</t>
-  </si>
-  <si>
-    <t>1,648,612</t>
-  </si>
-  <si>
-    <t>2,266,967</t>
-  </si>
-  <si>
-    <t>1,885,848</t>
-  </si>
-  <si>
-    <t>2,068,617</t>
-  </si>
-  <si>
-    <t>2,089,370</t>
-  </si>
-  <si>
-    <t>2,710,766</t>
-  </si>
-  <si>
-    <t>2,242,017</t>
-  </si>
-  <si>
-    <t>2,461,629</t>
-  </si>
-  <si>
-    <t>2,470,844</t>
-  </si>
-  <si>
-    <t>3,151,030</t>
-  </si>
-  <si>
-    <t>2,514,312</t>
-  </si>
-  <si>
-    <t>2,569,341</t>
-  </si>
-  <si>
     <t>流動資產合計</t>
   </si>
   <si>
-    <t>2,231,669</t>
-  </si>
-  <si>
-    <t>2,672,600</t>
-  </si>
-  <si>
-    <t>2,322,509</t>
-  </si>
-  <si>
-    <t>2,631,135</t>
-  </si>
-  <si>
-    <t>2,536,190</t>
-  </si>
-  <si>
-    <t>2,895,786</t>
-  </si>
-  <si>
-    <t>2,502,333</t>
-  </si>
-  <si>
-    <t>2,652,681</t>
-  </si>
-  <si>
-    <t>2,398,494</t>
-  </si>
-  <si>
-    <t>3,505,849</t>
-  </si>
-  <si>
-    <t>2,830,347</t>
-  </si>
-  <si>
-    <t>3,040,355</t>
-  </si>
-  <si>
-    <t>2,976,457</t>
-  </si>
-  <si>
-    <t>3,362,713</t>
-  </si>
-  <si>
-    <t>2,650,785</t>
-  </si>
-  <si>
-    <t>3,644,849</t>
-  </si>
-  <si>
     <t>無形資產</t>
   </si>
   <si>
-    <t>9,672</t>
-  </si>
-  <si>
-    <t>9,448</t>
-  </si>
-  <si>
-    <t>9,373</t>
-  </si>
-  <si>
-    <t>9,328</t>
-  </si>
-  <si>
-    <t>9,183</t>
-  </si>
-  <si>
-    <t>9,104</t>
-  </si>
-  <si>
-    <t>8,957</t>
-  </si>
-  <si>
-    <t>8,811</t>
-  </si>
-  <si>
-    <t>8,664</t>
-  </si>
-  <si>
-    <t>8,609</t>
-  </si>
-  <si>
-    <t>8,461</t>
-  </si>
-  <si>
-    <t>8,523</t>
-  </si>
-  <si>
-    <t>8,392</t>
-  </si>
-  <si>
-    <t>9,726</t>
-  </si>
-  <si>
-    <t>9,381</t>
-  </si>
-  <si>
     <t>特別盈餘公積</t>
   </si>
   <si>
-    <t>3,320,000</t>
-  </si>
-  <si>
-    <t>3,189,962</t>
-  </si>
-  <si>
-    <t>3,185,793</t>
-  </si>
-  <si>
     <t>現金及約當現金</t>
   </si>
   <si>
-    <t>298,781</t>
-  </si>
-  <si>
-    <t>304,381</t>
-  </si>
-  <si>
-    <t>356,502</t>
-  </si>
-  <si>
-    <t>429,215</t>
-  </si>
-  <si>
-    <t>401,545</t>
-  </si>
-  <si>
-    <t>325,334</t>
-  </si>
-  <si>
-    <t>373,266</t>
-  </si>
-  <si>
-    <t>396,132</t>
-  </si>
-  <si>
-    <t>295,188</t>
-  </si>
-  <si>
-    <t>269,261</t>
-  </si>
-  <si>
-    <t>360,821</t>
-  </si>
-  <si>
-    <t>395,027</t>
-  </si>
-  <si>
-    <t>435,873</t>
-  </si>
-  <si>
-    <t>348,082</t>
-  </si>
-  <si>
-    <t>230,916</t>
-  </si>
-  <si>
-    <t>197,262</t>
-  </si>
-  <si>
     <t>當期所得稅負債</t>
   </si>
   <si>
-    <t>7,158</t>
-  </si>
-  <si>
-    <t>22,044</t>
-  </si>
-  <si>
-    <t>23,804</t>
-  </si>
-  <si>
-    <t>25,221</t>
-  </si>
-  <si>
-    <t>36,618</t>
-  </si>
-  <si>
-    <t>59,197</t>
-  </si>
-  <si>
-    <t>68,496</t>
-  </si>
-  <si>
-    <t>81,262</t>
-  </si>
-  <si>
     <t>當期所得稅資產</t>
   </si>
   <si>
-    <t>1,862</t>
-  </si>
-  <si>
-    <t>1,879</t>
-  </si>
-  <si>
-    <t>2,336</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>375</t>
-  </si>
-  <si>
-    <t>385</t>
-  </si>
-  <si>
     <t>短期借款</t>
   </si>
   <si>
-    <t>184,000</t>
-  </si>
-  <si>
-    <t>394,000</t>
-  </si>
-  <si>
-    <t>588,000</t>
-  </si>
-  <si>
-    <t>412,000</t>
-  </si>
-  <si>
-    <t>717,000</t>
-  </si>
-  <si>
-    <t>650,000</t>
-  </si>
-  <si>
-    <t>314,000</t>
-  </si>
-  <si>
-    <t>403,000</t>
-  </si>
-  <si>
-    <t>947,000</t>
-  </si>
-  <si>
-    <t>541,000</t>
-  </si>
-  <si>
-    <t>708,000</t>
-  </si>
-  <si>
-    <t>693,000</t>
-  </si>
-  <si>
-    <t>1,107,000</t>
-  </si>
-  <si>
-    <t>703,000</t>
-  </si>
-  <si>
-    <t>950,000</t>
-  </si>
-  <si>
     <t>股本合計</t>
   </si>
   <si>
@@ -1843,424 +247,31 @@
     <t>負債及權益總計</t>
   </si>
   <si>
-    <t>19,711,954</t>
-  </si>
-  <si>
-    <t>19,978,924</t>
-  </si>
-  <si>
-    <t>19,729,475</t>
-  </si>
-  <si>
-    <t>19,970,871</t>
-  </si>
-  <si>
-    <t>20,216,450</t>
-  </si>
-  <si>
-    <t>20,707,212</t>
-  </si>
-  <si>
-    <t>20,104,834</t>
-  </si>
-  <si>
-    <t>20,347,150</t>
-  </si>
-  <si>
     <t>負債總計</t>
   </si>
   <si>
-    <t>2,655,801</t>
-  </si>
-  <si>
-    <t>3,310,831</t>
-  </si>
-  <si>
-    <t>3,049,429</t>
-  </si>
-  <si>
-    <t>3,207,834</t>
-  </si>
-  <si>
-    <t>3,152,206</t>
-  </si>
-  <si>
-    <t>3,772,540</t>
-  </si>
-  <si>
-    <t>3,393,483</t>
-  </si>
-  <si>
-    <t>3,584,786</t>
-  </si>
-  <si>
-    <t>3,606,207</t>
-  </si>
-  <si>
-    <t>4,218,177</t>
-  </si>
-  <si>
-    <t>3,748,147</t>
-  </si>
-  <si>
-    <t>3,970,485</t>
-  </si>
-  <si>
-    <t>3,853,003</t>
-  </si>
-  <si>
-    <t>4,534,492</t>
-  </si>
-  <si>
-    <t>3,898,948</t>
-  </si>
-  <si>
-    <t>3,951,027</t>
-  </si>
-  <si>
     <t>資本公積合計</t>
   </si>
   <si>
-    <t>21,763</t>
-  </si>
-  <si>
-    <t>26,553</t>
-  </si>
-  <si>
-    <t>28,999</t>
-  </si>
-  <si>
-    <t>31,494</t>
-  </si>
-  <si>
-    <t>49,272</t>
-  </si>
-  <si>
-    <t>47,112</t>
-  </si>
-  <si>
     <t>資產總計</t>
   </si>
   <si>
-    <t>16,387,519</t>
-  </si>
-  <si>
-    <t>16,876,836</t>
-  </si>
-  <si>
-    <t>16,796,278</t>
-  </si>
-  <si>
-    <t>17,746,983</t>
-  </si>
-  <si>
-    <t>18,062,861</t>
-  </si>
-  <si>
-    <t>18,525,690</t>
-  </si>
-  <si>
-    <t>18,566,160</t>
-  </si>
-  <si>
-    <t>19,382,756</t>
-  </si>
-  <si>
     <t>遞延所得稅負債</t>
   </si>
   <si>
-    <t>1,186,399</t>
-  </si>
-  <si>
-    <t>1,171,453</t>
-  </si>
-  <si>
-    <t>1,187,179</t>
-  </si>
-  <si>
-    <t>1,190,232</t>
-  </si>
-  <si>
-    <t>1,190,082</t>
-  </si>
-  <si>
-    <t>1,189,870</t>
-  </si>
-  <si>
-    <t>1,190,035</t>
-  </si>
-  <si>
-    <t>1,183,835</t>
-  </si>
-  <si>
-    <t>1,183,684</t>
-  </si>
-  <si>
-    <t>1,184,054</t>
-  </si>
-  <si>
-    <t>1,182,891</t>
-  </si>
-  <si>
-    <t>1,182,493</t>
-  </si>
-  <si>
-    <t>1,183,309</t>
-  </si>
-  <si>
     <t>遞延所得稅資產</t>
   </si>
   <si>
-    <t>12,585</t>
-  </si>
-  <si>
-    <t>12,338</t>
-  </si>
-  <si>
-    <t>14,683</t>
-  </si>
-  <si>
-    <t>10,661</t>
-  </si>
-  <si>
-    <t>10,626</t>
-  </si>
-  <si>
-    <t>10,736</t>
-  </si>
-  <si>
-    <t>10,569</t>
-  </si>
-  <si>
-    <t>7,438</t>
-  </si>
-  <si>
-    <t>7,376</t>
-  </si>
-  <si>
-    <t>7,240</t>
-  </si>
-  <si>
-    <t>7,204</t>
-  </si>
-  <si>
-    <t>4,283</t>
-  </si>
-  <si>
-    <t>4,728</t>
-  </si>
-  <si>
-    <t>4,669</t>
-  </si>
-  <si>
-    <t>4,859</t>
-  </si>
-  <si>
-    <t>5,098</t>
-  </si>
-  <si>
     <t>非控制權益</t>
   </si>
   <si>
-    <t>181,405</t>
-  </si>
-  <si>
-    <t>150,711</t>
-  </si>
-  <si>
-    <t>151,004</t>
-  </si>
-  <si>
-    <t>173,070</t>
-  </si>
-  <si>
-    <t>174,238</t>
-  </si>
-  <si>
-    <t>162,294</t>
-  </si>
-  <si>
-    <t>162,025</t>
-  </si>
-  <si>
-    <t>155,693</t>
-  </si>
-  <si>
-    <t>154,199</t>
-  </si>
-  <si>
-    <t>142,332</t>
-  </si>
-  <si>
-    <t>153,575</t>
-  </si>
-  <si>
-    <t>150,442</t>
-  </si>
-  <si>
-    <t>148,136</t>
-  </si>
-  <si>
-    <t>135,832</t>
-  </si>
-  <si>
-    <t>124,652</t>
-  </si>
-  <si>
-    <t>131,520</t>
-  </si>
-  <si>
     <t>非流動負債合計</t>
   </si>
   <si>
-    <t>1,528,405</t>
-  </si>
-  <si>
-    <t>1,523,193</t>
-  </si>
-  <si>
-    <t>1,529,617</t>
-  </si>
-  <si>
-    <t>1,507,385</t>
-  </si>
-  <si>
-    <t>1,503,594</t>
-  </si>
-  <si>
-    <t>1,505,573</t>
-  </si>
-  <si>
-    <t>1,507,635</t>
-  </si>
-  <si>
-    <t>1,516,169</t>
-  </si>
-  <si>
-    <t>1,516,837</t>
-  </si>
-  <si>
-    <t>1,507,411</t>
-  </si>
-  <si>
-    <t>1,506,130</t>
-  </si>
-  <si>
-    <t>1,508,856</t>
-  </si>
-  <si>
-    <t>1,382,159</t>
-  </si>
-  <si>
-    <t>1,383,462</t>
-  </si>
-  <si>
-    <t>1,384,636</t>
-  </si>
-  <si>
-    <t>1,381,686</t>
-  </si>
-  <si>
     <t>非流動資產合計</t>
   </si>
   <si>
-    <t>14,155,850</t>
-  </si>
-  <si>
-    <t>14,204,236</t>
-  </si>
-  <si>
-    <t>14,473,769</t>
-  </si>
-  <si>
-    <t>15,115,848</t>
-  </si>
-  <si>
-    <t>15,526,671</t>
-  </si>
-  <si>
-    <t>15,629,904</t>
-  </si>
-  <si>
-    <t>16,063,827</t>
-  </si>
-  <si>
-    <t>16,730,075</t>
-  </si>
-  <si>
-    <t>17,313,460</t>
-  </si>
-  <si>
-    <t>16,473,075</t>
-  </si>
-  <si>
-    <t>16,899,128</t>
-  </si>
-  <si>
-    <t>16,930,516</t>
-  </si>
-  <si>
-    <t>17,239,993</t>
-  </si>
-  <si>
-    <t>17,344,499</t>
-  </si>
-  <si>
-    <t>17,454,049</t>
-  </si>
-  <si>
-    <t>16,702,301</t>
-  </si>
-  <si>
     <t>預付款項</t>
-  </si>
-  <si>
-    <t>11,484</t>
-  </si>
-  <si>
-    <t>18,526</t>
-  </si>
-  <si>
-    <t>19,628</t>
-  </si>
-  <si>
-    <t>11,998</t>
-  </si>
-  <si>
-    <t>11,507</t>
-  </si>
-  <si>
-    <t>17,056</t>
-  </si>
-  <si>
-    <t>14,817</t>
-  </si>
-  <si>
-    <t>12,220</t>
-  </si>
-  <si>
-    <t>7,739</t>
-  </si>
-  <si>
-    <t>13,271</t>
-  </si>
-  <si>
-    <t>16,242</t>
-  </si>
-  <si>
-    <t>16,524</t>
-  </si>
-  <si>
-    <t>14,305</t>
-  </si>
-  <si>
-    <t>14,176</t>
-  </si>
-  <si>
-    <t>19,945</t>
-  </si>
-  <si>
-    <t>15,687</t>
   </si>
   <si>
     <t>預收股款（權益項下）之約當發行股數（單位：股）</t>
@@ -2722,98 +733,98 @@
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
+      <c r="B2" t="n">
+        <v>5801894</v>
       </c>
       <c r="C2" t="n">
         <v>35.4</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
+      <c r="D2" t="n">
+        <v>5822270</v>
       </c>
       <c r="E2" t="n">
         <v>34.5</v>
       </c>
-      <c r="F2" t="s">
-        <v>35</v>
+      <c r="F2" t="n">
+        <v>5838809</v>
       </c>
       <c r="G2" t="n">
         <v>34.76</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
+      <c r="H2" t="n">
+        <v>5846863</v>
       </c>
       <c r="I2" t="n">
         <v>32.95</v>
       </c>
-      <c r="J2" t="s">
-        <v>37</v>
+      <c r="J2" t="n">
+        <v>5853755</v>
       </c>
       <c r="K2" t="n">
         <v>32.41</v>
       </c>
-      <c r="L2" t="s">
-        <v>38</v>
+      <c r="L2" t="n">
+        <v>5827167</v>
       </c>
       <c r="M2" t="n">
         <v>31.45</v>
       </c>
-      <c r="N2" t="s">
-        <v>39</v>
+      <c r="N2" t="n">
+        <v>5759633</v>
       </c>
       <c r="O2" t="n">
         <v>31.02</v>
       </c>
-      <c r="P2" t="s">
-        <v>40</v>
+      <c r="P2" t="n">
+        <v>5736238</v>
       </c>
       <c r="Q2" t="n">
         <v>29.59</v>
       </c>
-      <c r="R2" t="s">
-        <v>41</v>
+      <c r="R2" t="n">
+        <v>5690994</v>
       </c>
       <c r="S2" t="n">
         <v>28.87</v>
       </c>
-      <c r="T2" t="s">
-        <v>42</v>
+      <c r="T2" t="n">
+        <v>5684691</v>
       </c>
       <c r="U2" t="n">
         <v>28.45</v>
       </c>
-      <c r="V2" t="s">
-        <v>43</v>
+      <c r="V2" t="n">
+        <v>5608698</v>
       </c>
       <c r="W2" t="n">
         <v>28.43</v>
       </c>
-      <c r="X2" t="s">
-        <v>44</v>
+      <c r="X2" t="n">
+        <v>5587635</v>
       </c>
       <c r="Y2" t="n">
         <v>27.98</v>
       </c>
-      <c r="Z2" t="s">
-        <v>45</v>
+      <c r="Z2" t="n">
+        <v>5569962</v>
       </c>
       <c r="AA2" t="n">
         <v>27.55</v>
       </c>
-      <c r="AB2" t="s">
-        <v>46</v>
+      <c r="AB2" t="n">
+        <v>5700593</v>
       </c>
       <c r="AC2" t="n">
         <v>27.53</v>
       </c>
-      <c r="AD2" t="s">
-        <v>47</v>
+      <c r="AD2" t="n">
+        <v>5723988</v>
       </c>
       <c r="AE2" t="n">
         <v>28.47</v>
       </c>
-      <c r="AF2" t="s">
-        <v>48</v>
+      <c r="AF2" t="n">
+        <v>5718489</v>
       </c>
       <c r="AG2" t="n">
         <v>28.1</v>
@@ -2821,100 +832,100 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6765931</v>
       </c>
       <c r="C3" t="n">
         <v>41.29</v>
       </c>
-      <c r="D3" t="s">
-        <v>51</v>
+      <c r="D3" t="n">
+        <v>6648450</v>
       </c>
       <c r="E3" t="n">
         <v>39.39</v>
       </c>
-      <c r="F3" t="s">
-        <v>52</v>
+      <c r="F3" t="n">
+        <v>6886689</v>
       </c>
       <c r="G3" t="n">
         <v>41</v>
       </c>
-      <c r="H3" t="s">
-        <v>53</v>
+      <c r="H3" t="n">
+        <v>7271548</v>
       </c>
       <c r="I3" t="n">
         <v>40.97</v>
       </c>
-      <c r="J3" t="s">
-        <v>54</v>
+      <c r="J3" t="n">
+        <v>7511209</v>
       </c>
       <c r="K3" t="n">
         <v>41.58</v>
       </c>
-      <c r="L3" t="s">
-        <v>55</v>
+      <c r="L3" t="n">
+        <v>7294906</v>
       </c>
       <c r="M3" t="n">
         <v>39.38</v>
       </c>
-      <c r="N3" t="s">
-        <v>56</v>
+      <c r="N3" t="n">
+        <v>7652999</v>
       </c>
       <c r="O3" t="n">
         <v>41.22</v>
       </c>
-      <c r="P3" t="s">
-        <v>57</v>
+      <c r="P3" t="n">
+        <v>7993017</v>
       </c>
       <c r="Q3" t="n">
         <v>41.24</v>
       </c>
-      <c r="R3" t="s">
-        <v>58</v>
+      <c r="R3" t="n">
+        <v>8248134</v>
       </c>
       <c r="S3" t="n">
         <v>41.84</v>
       </c>
-      <c r="T3" t="s">
-        <v>59</v>
+      <c r="T3" t="n">
+        <v>7861653</v>
       </c>
       <c r="U3" t="n">
         <v>39.35</v>
       </c>
-      <c r="V3" t="s">
-        <v>60</v>
+      <c r="V3" t="n">
+        <v>8162274</v>
       </c>
       <c r="W3" t="n">
         <v>41.37</v>
       </c>
-      <c r="X3" t="s">
-        <v>61</v>
+      <c r="X3" t="n">
+        <v>8638396</v>
       </c>
       <c r="Y3" t="n">
         <v>43.25</v>
       </c>
-      <c r="Z3" t="s">
-        <v>62</v>
+      <c r="Z3" t="n">
+        <v>8983685</v>
       </c>
       <c r="AA3" t="n">
         <v>44.44</v>
       </c>
-      <c r="AB3" t="s">
-        <v>63</v>
+      <c r="AB3" t="n">
+        <v>8804918</v>
       </c>
       <c r="AC3" t="n">
         <v>42.52</v>
       </c>
-      <c r="AD3" t="s">
-        <v>64</v>
+      <c r="AD3" t="n">
+        <v>9160940</v>
       </c>
       <c r="AE3" t="n">
         <v>45.57</v>
       </c>
-      <c r="AF3" t="s">
-        <v>65</v>
+      <c r="AF3" t="n">
+        <v>9650044</v>
       </c>
       <c r="AG3" t="n">
         <v>47.43</v>
@@ -2922,100 +933,100 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
+        <v>34</v>
+      </c>
+      <c r="B4" t="n">
+        <v>346702</v>
       </c>
       <c r="C4" t="n">
         <v>2.12</v>
       </c>
-      <c r="D4" t="s">
-        <v>68</v>
+      <c r="D4" t="n">
+        <v>510440</v>
       </c>
       <c r="E4" t="n">
         <v>3.02</v>
       </c>
-      <c r="F4" t="s">
-        <v>69</v>
+      <c r="F4" t="n">
+        <v>429275</v>
       </c>
       <c r="G4" t="n">
         <v>2.56</v>
       </c>
-      <c r="H4" t="s">
-        <v>70</v>
+      <c r="H4" t="n">
+        <v>492613</v>
       </c>
       <c r="I4" t="n">
         <v>2.78</v>
       </c>
-      <c r="J4" t="s">
-        <v>71</v>
+      <c r="J4" t="n">
+        <v>563320</v>
       </c>
       <c r="K4" t="n">
         <v>3.12</v>
       </c>
-      <c r="L4" t="s">
-        <v>72</v>
+      <c r="L4" t="n">
+        <v>506107</v>
       </c>
       <c r="M4" t="n">
         <v>2.73</v>
       </c>
-      <c r="N4" t="s">
-        <v>73</v>
+      <c r="N4" t="n">
+        <v>476880</v>
       </c>
       <c r="O4" t="n">
         <v>2.57</v>
       </c>
-      <c r="P4" t="s">
-        <v>74</v>
+      <c r="P4" t="n">
+        <v>513323</v>
       </c>
       <c r="Q4" t="n">
         <v>2.65</v>
       </c>
-      <c r="R4" t="s">
-        <v>75</v>
+      <c r="R4" t="n">
+        <v>537062</v>
       </c>
       <c r="S4" t="n">
         <v>2.72</v>
       </c>
-      <c r="T4" t="s">
-        <v>76</v>
+      <c r="T4" t="n">
+        <v>1323877</v>
       </c>
       <c r="U4" t="n">
         <v>6.63</v>
       </c>
-      <c r="V4" t="s">
-        <v>77</v>
+      <c r="V4" t="n">
+        <v>1047012</v>
       </c>
       <c r="W4" t="n">
         <v>5.31</v>
       </c>
-      <c r="X4" t="s">
-        <v>78</v>
+      <c r="X4" t="n">
+        <v>1033792</v>
       </c>
       <c r="Y4" t="n">
         <v>5.18</v>
       </c>
-      <c r="Z4" t="s">
-        <v>79</v>
+      <c r="Z4" t="n">
+        <v>1139704</v>
       </c>
       <c r="AA4" t="n">
         <v>5.64</v>
       </c>
-      <c r="AB4" t="s">
-        <v>80</v>
+      <c r="AB4" t="n">
+        <v>1132780</v>
       </c>
       <c r="AC4" t="n">
         <v>5.47</v>
       </c>
-      <c r="AD4" t="s">
-        <v>81</v>
+      <c r="AD4" t="n">
+        <v>1107688</v>
       </c>
       <c r="AE4" t="n">
         <v>5.51</v>
       </c>
-      <c r="AF4" t="s">
-        <v>82</v>
+      <c r="AF4" t="n">
+        <v>1966169</v>
       </c>
       <c r="AG4" t="n">
         <v>9.66</v>
@@ -3023,100 +1034,100 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>84</v>
+        <v>35</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2209506</v>
       </c>
       <c r="C5" t="n">
         <v>13.48</v>
       </c>
-      <c r="D5" t="s">
-        <v>85</v>
+      <c r="D5" t="n">
+        <v>2210447</v>
       </c>
       <c r="E5" t="n">
         <v>13.1</v>
       </c>
-      <c r="F5" t="s">
-        <v>86</v>
+      <c r="F5" t="n">
+        <v>2291373</v>
       </c>
       <c r="G5" t="n">
         <v>13.64</v>
       </c>
-      <c r="H5" t="s">
-        <v>87</v>
+      <c r="H5" t="n">
+        <v>2415438</v>
       </c>
       <c r="I5" t="n">
         <v>13.61</v>
       </c>
-      <c r="J5" t="s">
-        <v>88</v>
+      <c r="J5" t="n">
+        <v>2493303</v>
       </c>
       <c r="K5" t="n">
         <v>13.8</v>
       </c>
-      <c r="L5" t="s">
-        <v>89</v>
+      <c r="L5" t="n">
+        <v>2615835</v>
       </c>
       <c r="M5" t="n">
         <v>14.12</v>
       </c>
-      <c r="N5" t="s">
-        <v>90</v>
+      <c r="N5" t="n">
+        <v>2620991</v>
       </c>
       <c r="O5" t="n">
         <v>14.12</v>
       </c>
-      <c r="P5" t="s">
-        <v>91</v>
+      <c r="P5" t="n">
+        <v>2626208</v>
       </c>
       <c r="Q5" t="n">
         <v>13.55</v>
       </c>
-      <c r="R5" t="s">
-        <v>92</v>
+      <c r="R5" t="n">
+        <v>2737320</v>
       </c>
       <c r="S5" t="n">
         <v>13.89</v>
       </c>
-      <c r="T5" t="s">
-        <v>93</v>
+      <c r="T5" t="n">
+        <v>1977691</v>
       </c>
       <c r="U5" t="n">
         <v>9.9</v>
       </c>
-      <c r="V5" t="s">
-        <v>94</v>
+      <c r="V5" t="n">
+        <v>1710009</v>
       </c>
       <c r="W5" t="n">
         <v>8.67</v>
       </c>
-      <c r="X5" t="s">
-        <v>95</v>
+      <c r="X5" t="n">
+        <v>1713104</v>
       </c>
       <c r="Y5" t="n">
         <v>8.58</v>
       </c>
-      <c r="Z5" t="s">
-        <v>96</v>
+      <c r="Z5" t="n">
+        <v>1788921</v>
       </c>
       <c r="AA5" t="n">
         <v>8.85</v>
       </c>
-      <c r="AB5" t="s">
-        <v>97</v>
+      <c r="AB5" t="n">
+        <v>1683705</v>
       </c>
       <c r="AC5" t="n">
         <v>8.130000000000001</v>
       </c>
-      <c r="AD5" t="s">
-        <v>98</v>
+      <c r="AD5" t="n">
+        <v>1646570</v>
       </c>
       <c r="AE5" t="n">
         <v>8.19</v>
       </c>
-      <c r="AF5" t="s">
-        <v>99</v>
+      <c r="AF5" t="n">
+        <v>787821</v>
       </c>
       <c r="AG5" t="n">
         <v>3.87</v>
@@ -3124,100 +1135,100 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
+        <v>36</v>
+      </c>
+      <c r="B6" t="n">
+        <v>173857</v>
       </c>
       <c r="C6" t="n">
         <v>1.06</v>
       </c>
-      <c r="D6" t="s">
-        <v>102</v>
+      <c r="D6" t="n">
+        <v>670350</v>
       </c>
       <c r="E6" t="n">
         <v>3.97</v>
       </c>
-      <c r="F6" t="s">
-        <v>103</v>
+      <c r="F6" t="n">
+        <v>184996</v>
       </c>
       <c r="G6" t="n">
         <v>1.1</v>
       </c>
-      <c r="H6" t="s">
-        <v>104</v>
+      <c r="H6" t="n">
+        <v>206504</v>
       </c>
       <c r="I6" t="n">
         <v>1.16</v>
       </c>
-      <c r="J6" t="s">
-        <v>105</v>
+      <c r="J6" t="n">
+        <v>189167</v>
       </c>
       <c r="K6" t="n">
         <v>1.05</v>
       </c>
-      <c r="L6" t="s">
-        <v>106</v>
+      <c r="L6" t="n">
+        <v>755964</v>
       </c>
       <c r="M6" t="n">
         <v>4.08</v>
       </c>
-      <c r="N6" t="s">
-        <v>107</v>
+      <c r="N6" t="n">
+        <v>198872</v>
       </c>
       <c r="O6" t="n">
         <v>1.07</v>
       </c>
-      <c r="P6" t="s">
-        <v>108</v>
+      <c r="P6" t="n">
+        <v>222799</v>
       </c>
       <c r="Q6" t="n">
         <v>1.15</v>
       </c>
-      <c r="R6" t="s">
-        <v>109</v>
+      <c r="R6" t="n">
+        <v>185864</v>
       </c>
       <c r="S6" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="T6" t="s">
-        <v>110</v>
+      <c r="T6" t="n">
+        <v>797786</v>
       </c>
       <c r="U6" t="n">
         <v>3.99</v>
       </c>
-      <c r="V6" t="s">
-        <v>111</v>
+      <c r="V6" t="n">
+        <v>191532</v>
       </c>
       <c r="W6" t="n">
         <v>0.97</v>
       </c>
-      <c r="X6" t="s">
-        <v>112</v>
+      <c r="X6" t="n">
+        <v>218104</v>
       </c>
       <c r="Y6" t="n">
         <v>1.09</v>
       </c>
-      <c r="Z6" t="s">
-        <v>113</v>
+      <c r="Z6" t="n">
+        <v>188547</v>
       </c>
       <c r="AA6" t="n">
         <v>0.93</v>
       </c>
-      <c r="AB6" t="s">
-        <v>114</v>
+      <c r="AB6" t="n">
+        <v>830626</v>
       </c>
       <c r="AC6" t="n">
         <v>4.01</v>
       </c>
-      <c r="AD6" t="s">
-        <v>115</v>
+      <c r="AD6" t="n">
+        <v>218894</v>
       </c>
       <c r="AE6" t="n">
         <v>1.09</v>
       </c>
-      <c r="AF6" t="s">
-        <v>116</v>
+      <c r="AF6" t="n">
+        <v>238149</v>
       </c>
       <c r="AG6" t="n">
         <v>1.17</v>
@@ -3225,100 +1236,100 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" t="s">
-        <v>118</v>
+        <v>37</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8744</v>
       </c>
       <c r="C7" t="n">
         <v>0.05</v>
       </c>
-      <c r="D7" t="s">
-        <v>119</v>
+      <c r="D7" t="n">
+        <v>289758</v>
       </c>
       <c r="E7" t="n">
         <v>1.72</v>
       </c>
-      <c r="F7" t="s">
-        <v>120</v>
+      <c r="F7" t="n">
+        <v>23714</v>
       </c>
       <c r="G7" t="n">
         <v>0.14</v>
       </c>
-      <c r="H7" t="s">
-        <v>121</v>
+      <c r="H7" t="n">
+        <v>14626</v>
       </c>
       <c r="I7" t="n">
         <v>0.08</v>
       </c>
-      <c r="J7" t="s">
-        <v>122</v>
+      <c r="J7" t="n">
+        <v>15079</v>
       </c>
       <c r="K7" t="n">
         <v>0.08</v>
       </c>
-      <c r="L7" t="s">
-        <v>123</v>
+      <c r="L7" t="n">
+        <v>317446</v>
       </c>
       <c r="M7" t="n">
         <v>1.71</v>
       </c>
-      <c r="N7" t="s">
-        <v>124</v>
+      <c r="N7" t="n">
+        <v>19887</v>
       </c>
       <c r="O7" t="n">
         <v>0.11</v>
       </c>
-      <c r="P7" t="s">
-        <v>125</v>
+      <c r="P7" t="n">
+        <v>2543</v>
       </c>
       <c r="Q7" t="n">
         <v>0.01</v>
       </c>
-      <c r="R7" t="s">
-        <v>126</v>
+      <c r="R7" t="n">
+        <v>7431</v>
       </c>
       <c r="S7" t="n">
         <v>0.04</v>
       </c>
-      <c r="T7" t="s">
-        <v>127</v>
+      <c r="T7" t="n">
+        <v>416583</v>
       </c>
       <c r="U7" t="n">
         <v>2.09</v>
       </c>
-      <c r="V7" t="s">
-        <v>128</v>
+      <c r="V7" t="n">
+        <v>6766</v>
       </c>
       <c r="W7" t="n">
         <v>0.03</v>
       </c>
-      <c r="X7" t="s">
-        <v>129</v>
+      <c r="X7" t="n">
+        <v>4768</v>
       </c>
       <c r="Y7" t="n">
         <v>0.02</v>
       </c>
-      <c r="Z7" t="s">
-        <v>130</v>
+      <c r="Z7" t="n">
+        <v>12487</v>
       </c>
       <c r="AA7" t="n">
         <v>0.06</v>
       </c>
-      <c r="AB7" t="s">
-        <v>131</v>
+      <c r="AB7" t="n">
+        <v>453568</v>
       </c>
       <c r="AC7" t="n">
         <v>2.19</v>
       </c>
-      <c r="AD7" t="s">
-        <v>132</v>
+      <c r="AD7" t="n">
+        <v>12794</v>
       </c>
       <c r="AE7" t="n">
         <v>0.06</v>
       </c>
-      <c r="AF7" t="s">
-        <v>133</v>
+      <c r="AF7" t="n">
+        <v>4038</v>
       </c>
       <c r="AG7" t="n">
         <v>0.02</v>
@@ -3326,100 +1337,100 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" t="s">
-        <v>135</v>
+        <v>38</v>
+      </c>
+      <c r="B8" t="n">
+        <v>723700</v>
       </c>
       <c r="C8" t="n">
         <v>4.42</v>
       </c>
-      <c r="D8" t="s">
-        <v>136</v>
+      <c r="D8" t="n">
+        <v>706162</v>
       </c>
       <c r="E8" t="n">
         <v>4.18</v>
       </c>
-      <c r="F8" t="s">
-        <v>137</v>
+      <c r="F8" t="n">
+        <v>648474</v>
       </c>
       <c r="G8" t="n">
         <v>3.86</v>
       </c>
-      <c r="H8" t="s">
-        <v>138</v>
+      <c r="H8" t="n">
+        <v>1029059</v>
       </c>
       <c r="I8" t="n">
         <v>5.8</v>
       </c>
-      <c r="J8" t="s">
-        <v>139</v>
+      <c r="J8" t="n">
+        <v>1159736</v>
       </c>
       <c r="K8" t="n">
         <v>6.42</v>
       </c>
-      <c r="L8" t="s">
-        <v>140</v>
+      <c r="L8" t="n">
+        <v>1109700</v>
       </c>
       <c r="M8" t="n">
         <v>5.99</v>
       </c>
-      <c r="N8" t="s">
-        <v>141</v>
+      <c r="N8" t="n">
+        <v>1171403</v>
       </c>
       <c r="O8" t="n">
         <v>6.31</v>
       </c>
-      <c r="P8" t="s">
-        <v>142</v>
+      <c r="P8" t="n">
+        <v>1460564</v>
       </c>
       <c r="Q8" t="n">
         <v>7.54</v>
       </c>
-      <c r="R8" t="s">
-        <v>143</v>
+      <c r="R8" t="n">
+        <v>1514718</v>
       </c>
       <c r="S8" t="n">
         <v>7.68</v>
       </c>
-      <c r="T8" t="s">
-        <v>144</v>
+      <c r="T8" t="n">
+        <v>1444872</v>
       </c>
       <c r="U8" t="n">
         <v>7.23</v>
       </c>
-      <c r="V8" t="s">
-        <v>145</v>
+      <c r="V8" t="n">
+        <v>1351094</v>
       </c>
       <c r="W8" t="n">
         <v>6.85</v>
       </c>
-      <c r="X8" t="s">
-        <v>146</v>
+      <c r="X8" t="n">
+        <v>879385</v>
       </c>
       <c r="Y8" t="n">
         <v>4.4</v>
       </c>
-      <c r="Z8" t="s">
-        <v>147</v>
+      <c r="Z8" t="n">
+        <v>899463</v>
       </c>
       <c r="AA8" t="n">
         <v>4.45</v>
       </c>
-      <c r="AB8" t="s">
-        <v>148</v>
+      <c r="AB8" t="n">
+        <v>836978</v>
       </c>
       <c r="AC8" t="n">
         <v>4.04</v>
       </c>
-      <c r="AD8" t="s">
-        <v>149</v>
+      <c r="AD8" t="n">
+        <v>525302</v>
       </c>
       <c r="AE8" t="n">
         <v>2.61</v>
       </c>
-      <c r="AF8" t="s">
-        <v>150</v>
+      <c r="AF8" t="n">
+        <v>221727</v>
       </c>
       <c r="AG8" t="n">
         <v>1.09</v>
@@ -3427,100 +1438,100 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" t="s">
-        <v>152</v>
+        <v>39</v>
+      </c>
+      <c r="B9" t="n">
+        <v>25126</v>
       </c>
       <c r="C9" t="n">
         <v>0.15</v>
       </c>
-      <c r="D9" t="s">
-        <v>153</v>
+      <c r="D9" t="n">
+        <v>24426</v>
       </c>
       <c r="E9" t="n">
         <v>0.14</v>
       </c>
-      <c r="F9" t="s">
-        <v>154</v>
+      <c r="F9" t="n">
+        <v>21280</v>
       </c>
       <c r="G9" t="n">
         <v>0.13</v>
       </c>
-      <c r="H9" t="s">
-        <v>155</v>
+      <c r="H9" t="n">
+        <v>23107</v>
       </c>
       <c r="I9" t="n">
         <v>0.13</v>
       </c>
-      <c r="J9" t="s">
-        <v>156</v>
+      <c r="J9" t="n">
+        <v>31116</v>
       </c>
       <c r="K9" t="n">
         <v>0.17</v>
       </c>
-      <c r="L9" t="s">
-        <v>157</v>
+      <c r="L9" t="n">
+        <v>36315</v>
       </c>
       <c r="M9" t="n">
         <v>0.2</v>
       </c>
-      <c r="N9" t="s">
-        <v>158</v>
+      <c r="N9" t="n">
+        <v>37936</v>
       </c>
       <c r="O9" t="n">
         <v>0.2</v>
       </c>
-      <c r="P9" t="s">
-        <v>159</v>
+      <c r="P9" t="n">
+        <v>25889</v>
       </c>
       <c r="Q9" t="n">
         <v>0.13</v>
       </c>
-      <c r="R9" t="s">
-        <v>160</v>
+      <c r="R9" t="n">
+        <v>33251</v>
       </c>
       <c r="S9" t="n">
         <v>0.17</v>
       </c>
-      <c r="T9" t="s">
-        <v>161</v>
+      <c r="T9" t="n">
+        <v>30956</v>
       </c>
       <c r="U9" t="n">
         <v>0.15</v>
       </c>
-      <c r="V9" t="s">
-        <v>162</v>
+      <c r="V9" t="n">
+        <v>33834</v>
       </c>
       <c r="W9" t="n">
         <v>0.17</v>
       </c>
-      <c r="X9" t="s">
-        <v>163</v>
+      <c r="X9" t="n">
+        <v>26148</v>
       </c>
       <c r="Y9" t="n">
         <v>0.13</v>
       </c>
-      <c r="Z9" t="s">
-        <v>164</v>
+      <c r="Z9" t="n">
+        <v>35091</v>
       </c>
       <c r="AA9" t="n">
         <v>0.17</v>
       </c>
-      <c r="AB9" t="s">
-        <v>165</v>
+      <c r="AB9" t="n">
+        <v>34695</v>
       </c>
       <c r="AC9" t="n">
         <v>0.17</v>
       </c>
-      <c r="AD9" t="s">
-        <v>166</v>
+      <c r="AD9" t="n">
+        <v>37841</v>
       </c>
       <c r="AE9" t="n">
         <v>0.19</v>
       </c>
-      <c r="AF9" t="s">
-        <v>167</v>
+      <c r="AF9" t="n">
+        <v>25751</v>
       </c>
       <c r="AG9" t="n">
         <v>0.13</v>
@@ -3528,100 +1539,100 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" t="s">
-        <v>169</v>
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>128043</v>
       </c>
       <c r="C10" t="n">
         <v>0.78</v>
       </c>
-      <c r="D10" t="s">
-        <v>170</v>
+      <c r="D10" t="n">
+        <v>145057</v>
       </c>
       <c r="E10" t="n">
         <v>0.86</v>
       </c>
-      <c r="F10" t="s">
-        <v>171</v>
+      <c r="F10" t="n">
+        <v>72027</v>
       </c>
       <c r="G10" t="n">
         <v>0.43</v>
       </c>
-      <c r="H10" t="s">
-        <v>172</v>
+      <c r="H10" t="n">
+        <v>67955</v>
       </c>
       <c r="I10" t="n">
         <v>0.38</v>
       </c>
-      <c r="J10" t="s">
-        <v>173</v>
+      <c r="J10" t="n">
+        <v>85500</v>
       </c>
       <c r="K10" t="n">
         <v>0.47</v>
       </c>
-      <c r="L10" t="s">
-        <v>174</v>
+      <c r="L10" t="n">
+        <v>126427</v>
       </c>
       <c r="M10" t="n">
         <v>0.68</v>
       </c>
-      <c r="N10" t="s">
-        <v>175</v>
+      <c r="N10" t="n">
+        <v>109641</v>
       </c>
       <c r="O10" t="n">
         <v>0.59</v>
       </c>
-      <c r="P10" t="s">
-        <v>176</v>
+      <c r="P10" t="n">
+        <v>115112</v>
       </c>
       <c r="Q10" t="n">
         <v>0.59</v>
       </c>
-      <c r="R10" t="s">
-        <v>177</v>
+      <c r="R10" t="n">
+        <v>131056</v>
       </c>
       <c r="S10" t="n">
         <v>0.66</v>
       </c>
-      <c r="T10" t="s">
-        <v>178</v>
+      <c r="T10" t="n">
+        <v>120501</v>
       </c>
       <c r="U10" t="n">
         <v>0.6</v>
       </c>
-      <c r="V10" t="s">
-        <v>179</v>
+      <c r="V10" t="n">
+        <v>123028</v>
       </c>
       <c r="W10" t="n">
         <v>0.62</v>
       </c>
-      <c r="X10" t="s">
-        <v>180</v>
+      <c r="X10" t="n">
+        <v>129972</v>
       </c>
       <c r="Y10" t="n">
         <v>0.65</v>
       </c>
-      <c r="Z10" t="s">
-        <v>181</v>
+      <c r="Z10" t="n">
+        <v>134872</v>
       </c>
       <c r="AA10" t="n">
         <v>0.67</v>
       </c>
-      <c r="AB10" t="s">
-        <v>182</v>
+      <c r="AB10" t="n">
+        <v>144588</v>
       </c>
       <c r="AC10" t="n">
         <v>0.7</v>
       </c>
-      <c r="AD10" t="s">
-        <v>183</v>
+      <c r="AD10" t="n">
+        <v>137749</v>
       </c>
       <c r="AE10" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AF10" t="s">
-        <v>184</v>
+      <c r="AF10" t="n">
+        <v>96863</v>
       </c>
       <c r="AG10" t="n">
         <v>0.48</v>
@@ -3629,100 +1640,100 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" t="s">
-        <v>186</v>
+        <v>41</v>
+      </c>
+      <c r="B11" t="n">
+        <v>342006</v>
       </c>
       <c r="C11" t="n">
         <v>2.09</v>
       </c>
-      <c r="D11" t="s">
-        <v>187</v>
+      <c r="D11" t="n">
+        <v>351740</v>
       </c>
       <c r="E11" t="n">
         <v>2.08</v>
       </c>
-      <c r="F11" t="s">
-        <v>188</v>
+      <c r="F11" t="n">
+        <v>342438</v>
       </c>
       <c r="G11" t="n">
         <v>2.04</v>
       </c>
-      <c r="H11" t="s">
-        <v>189</v>
+      <c r="H11" t="n">
+        <v>317153</v>
       </c>
       <c r="I11" t="n">
         <v>1.79</v>
       </c>
-      <c r="J11" t="s">
-        <v>190</v>
+      <c r="J11" t="n">
+        <v>313512</v>
       </c>
       <c r="K11" t="n">
         <v>1.74</v>
       </c>
-      <c r="L11" t="s">
-        <v>191</v>
+      <c r="L11" t="n">
+        <v>315703</v>
       </c>
       <c r="M11" t="n">
         <v>1.7</v>
       </c>
-      <c r="N11" t="s">
-        <v>192</v>
+      <c r="N11" t="n">
+        <v>317600</v>
       </c>
       <c r="O11" t="n">
         <v>1.71</v>
       </c>
-      <c r="P11" t="s">
-        <v>193</v>
+      <c r="P11" t="n">
+        <v>332334</v>
       </c>
       <c r="Q11" t="n">
         <v>1.71</v>
       </c>
-      <c r="R11" t="s">
-        <v>194</v>
+      <c r="R11" t="n">
+        <v>333153</v>
       </c>
       <c r="S11" t="n">
         <v>1.69</v>
       </c>
-      <c r="T11" t="s">
-        <v>195</v>
+      <c r="T11" t="n">
+        <v>323727</v>
       </c>
       <c r="U11" t="n">
         <v>1.62</v>
       </c>
-      <c r="V11" t="s">
-        <v>196</v>
+      <c r="V11" t="n">
+        <v>322076</v>
       </c>
       <c r="W11" t="n">
         <v>1.63</v>
       </c>
-      <c r="X11" t="s">
-        <v>197</v>
+      <c r="X11" t="n">
+        <v>325965</v>
       </c>
       <c r="Y11" t="n">
         <v>1.63</v>
       </c>
-      <c r="Z11" t="s">
-        <v>198</v>
+      <c r="Z11" t="n">
+        <v>199666</v>
       </c>
       <c r="AA11" t="n">
         <v>0.99</v>
       </c>
-      <c r="AB11" t="s">
-        <v>199</v>
+      <c r="AB11" t="n">
+        <v>200969</v>
       </c>
       <c r="AC11" t="n">
         <v>0.97</v>
       </c>
-      <c r="AD11" t="s">
-        <v>200</v>
+      <c r="AD11" t="n">
+        <v>202143</v>
       </c>
       <c r="AE11" t="n">
         <v>1.01</v>
       </c>
-      <c r="AF11" t="s">
-        <v>201</v>
+      <c r="AF11" t="n">
+        <v>198377</v>
       </c>
       <c r="AG11" t="n">
         <v>0.97</v>
@@ -3730,100 +1741,100 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" t="s">
-        <v>203</v>
+        <v>42</v>
+      </c>
+      <c r="B12" t="n">
+        <v>117000</v>
       </c>
       <c r="C12" t="n">
         <v>0.71</v>
       </c>
-      <c r="D12" t="s">
-        <v>204</v>
+      <c r="D12" t="n">
+        <v>72140</v>
       </c>
       <c r="E12" t="n">
         <v>0.43</v>
       </c>
-      <c r="F12" t="s">
-        <v>205</v>
+      <c r="F12" t="n">
+        <v>109579</v>
       </c>
       <c r="G12" t="n">
         <v>0.65</v>
       </c>
-      <c r="H12" t="s">
-        <v>206</v>
+      <c r="H12" t="n">
+        <v>126578</v>
       </c>
       <c r="I12" t="n">
         <v>0.71</v>
       </c>
-      <c r="J12" t="s">
-        <v>207</v>
+      <c r="J12" t="n">
+        <v>134587</v>
       </c>
       <c r="K12" t="n">
         <v>0.75</v>
       </c>
-      <c r="L12" t="s">
-        <v>208</v>
+      <c r="L12" t="n">
+        <v>154412</v>
       </c>
       <c r="M12" t="n">
         <v>0.83</v>
       </c>
-      <c r="N12" t="s">
-        <v>209</v>
+      <c r="N12" t="n">
+        <v>174972</v>
       </c>
       <c r="O12" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="P12" t="s">
-        <v>210</v>
+      <c r="P12" t="n">
+        <v>260232</v>
       </c>
       <c r="Q12" t="n">
         <v>1.34</v>
       </c>
-      <c r="R12" t="s">
-        <v>211</v>
+      <c r="R12" t="n">
+        <v>290180</v>
       </c>
       <c r="S12" t="n">
         <v>1.47</v>
       </c>
-      <c r="T12" t="s">
-        <v>212</v>
+      <c r="T12" t="n">
+        <v>379012</v>
       </c>
       <c r="U12" t="n">
         <v>1.9</v>
       </c>
-      <c r="V12" t="s">
-        <v>213</v>
+      <c r="V12" t="n">
+        <v>380854</v>
       </c>
       <c r="W12" t="n">
         <v>1.93</v>
       </c>
-      <c r="X12" t="s">
-        <v>214</v>
+      <c r="X12" t="n">
+        <v>466604</v>
       </c>
       <c r="Y12" t="n">
         <v>2.34</v>
       </c>
-      <c r="Z12" t="s">
-        <v>215</v>
+      <c r="Z12" t="n">
+        <v>533892</v>
       </c>
       <c r="AA12" t="n">
         <v>2.64</v>
       </c>
-      <c r="AB12" t="s">
-        <v>216</v>
+      <c r="AB12" t="n">
+        <v>557874</v>
       </c>
       <c r="AC12" t="n">
         <v>2.69</v>
       </c>
-      <c r="AD12" t="s">
-        <v>217</v>
+      <c r="AD12" t="n">
+        <v>642411</v>
       </c>
       <c r="AE12" t="n">
         <v>3.2</v>
       </c>
-      <c r="AF12" t="s">
-        <v>218</v>
+      <c r="AF12" t="n">
+        <v>647853</v>
       </c>
       <c r="AG12" t="n">
         <v>3.18</v>
@@ -3831,100 +1842,100 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B13" t="s">
-        <v>220</v>
+        <v>43</v>
+      </c>
+      <c r="B13" t="n">
+        <v>256004</v>
       </c>
       <c r="C13" t="n">
         <v>1.56</v>
       </c>
-      <c r="D13" t="s">
-        <v>221</v>
+      <c r="D13" t="n">
+        <v>307185</v>
       </c>
       <c r="E13" t="n">
         <v>1.82</v>
       </c>
-      <c r="F13" t="s">
-        <v>222</v>
+      <c r="F13" t="n">
+        <v>348180</v>
       </c>
       <c r="G13" t="n">
         <v>2.07</v>
       </c>
-      <c r="H13" t="s">
-        <v>223</v>
+      <c r="H13" t="n">
+        <v>340696</v>
       </c>
       <c r="I13" t="n">
         <v>1.92</v>
       </c>
-      <c r="J13" t="s">
-        <v>224</v>
+      <c r="J13" t="n">
+        <v>305938</v>
       </c>
       <c r="K13" t="n">
         <v>1.69</v>
       </c>
-      <c r="L13" t="s">
-        <v>225</v>
+      <c r="L13" t="n">
+        <v>357157</v>
       </c>
       <c r="M13" t="n">
         <v>1.93</v>
       </c>
-      <c r="N13" t="s">
-        <v>226</v>
+      <c r="N13" t="n">
+        <v>313738</v>
       </c>
       <c r="O13" t="n">
         <v>1.69</v>
       </c>
-      <c r="P13" t="s">
-        <v>227</v>
+      <c r="P13" t="n">
+        <v>326165</v>
       </c>
       <c r="Q13" t="n">
         <v>1.68</v>
       </c>
-      <c r="R13" t="s">
-        <v>228</v>
+      <c r="R13" t="n">
+        <v>330309</v>
       </c>
       <c r="S13" t="n">
         <v>1.68</v>
       </c>
-      <c r="T13" t="s">
-        <v>229</v>
+      <c r="T13" t="n">
+        <v>317244</v>
       </c>
       <c r="U13" t="n">
         <v>1.59</v>
       </c>
-      <c r="V13" t="s">
-        <v>230</v>
+      <c r="V13" t="n">
+        <v>286257</v>
       </c>
       <c r="W13" t="n">
         <v>1.45</v>
       </c>
-      <c r="X13" t="s">
-        <v>231</v>
+      <c r="X13" t="n">
+        <v>338241</v>
       </c>
       <c r="Y13" t="n">
         <v>1.69</v>
       </c>
-      <c r="Z13" t="s">
-        <v>232</v>
+      <c r="Z13" t="n">
+        <v>297115</v>
       </c>
       <c r="AA13" t="n">
         <v>1.47</v>
       </c>
-      <c r="AB13" t="s">
-        <v>233</v>
+      <c r="AB13" t="n">
+        <v>300765</v>
       </c>
       <c r="AC13" t="n">
         <v>1.45</v>
       </c>
-      <c r="AD13" t="s">
-        <v>234</v>
+      <c r="AD13" t="n">
+        <v>314201</v>
       </c>
       <c r="AE13" t="n">
         <v>1.56</v>
       </c>
-      <c r="AF13" t="s">
-        <v>235</v>
+      <c r="AF13" t="n">
+        <v>309386</v>
       </c>
       <c r="AG13" t="n">
         <v>1.52</v>
@@ -3932,34 +1943,34 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B14" t="s">
-        <v>237</v>
+        <v>44</v>
+      </c>
+      <c r="B14" t="n">
+        <v>86646</v>
       </c>
       <c r="C14" t="n">
         <v>0.53</v>
       </c>
-      <c r="D14" t="s">
-        <v>238</v>
+      <c r="D14" t="n">
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
-        <v>238</v>
+      <c r="F14" t="n">
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
-        <v>238</v>
+      <c r="H14" t="n">
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
-        <v>238</v>
+      <c r="J14" t="n">
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -3989,7 +2000,7 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="1" t="s">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s"/>
       <c r="C15" t="s"/>
@@ -4001,8 +2012,8 @@
       <c r="I15" t="s"/>
       <c r="J15" t="s"/>
       <c r="K15" t="s"/>
-      <c r="L15" t="s">
-        <v>240</v>
+      <c r="L15" t="n">
+        <v>120778</v>
       </c>
       <c r="M15" t="n">
         <v>0.65</v>
@@ -4013,8 +2024,8 @@
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
-      <c r="T15" t="s">
-        <v>241</v>
+      <c r="T15" t="n">
+        <v>123194</v>
       </c>
       <c r="U15" t="n">
         <v>0.62</v>
@@ -4025,8 +2036,8 @@
       <c r="Y15" t="s"/>
       <c r="Z15" t="s"/>
       <c r="AA15" t="s"/>
-      <c r="AB15" t="s">
-        <v>242</v>
+      <c r="AB15" t="n">
+        <v>62829</v>
       </c>
       <c r="AC15" t="n">
         <v>0.3</v>
@@ -4038,7 +2049,7 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="1" t="s">
-        <v>243</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s"/>
       <c r="C16" t="s"/>
@@ -4048,26 +2059,26 @@
       <c r="G16" t="s"/>
       <c r="H16" t="s"/>
       <c r="I16" t="s"/>
-      <c r="J16" t="s">
-        <v>238</v>
+      <c r="J16" t="n">
+        <v>0</v>
       </c>
       <c r="K16" t="s"/>
-      <c r="L16" t="s">
-        <v>238</v>
+      <c r="L16" t="n">
+        <v>0</v>
       </c>
       <c r="M16" t="s"/>
-      <c r="N16" t="s">
-        <v>238</v>
+      <c r="N16" t="n">
+        <v>0</v>
       </c>
       <c r="O16" t="s"/>
-      <c r="P16" t="s">
-        <v>238</v>
+      <c r="P16" t="n">
+        <v>0</v>
       </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
-      <c r="T16" t="s">
-        <v>238</v>
+      <c r="T16" t="n">
+        <v>0</v>
       </c>
       <c r="U16" t="s"/>
       <c r="V16" t="s"/>
@@ -4085,100 +2096,100 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B17" t="s">
-        <v>245</v>
+        <v>47</v>
+      </c>
+      <c r="B17" t="n">
+        <v>250513</v>
       </c>
       <c r="C17" t="n">
         <v>1.53</v>
       </c>
-      <c r="D17" t="s">
-        <v>246</v>
+      <c r="D17" t="n">
+        <v>264674</v>
       </c>
       <c r="E17" t="n">
         <v>1.57</v>
       </c>
-      <c r="F17" t="s">
-        <v>247</v>
+      <c r="F17" t="n">
+        <v>281213</v>
       </c>
       <c r="G17" t="n">
         <v>1.67</v>
       </c>
-      <c r="H17" t="s">
-        <v>248</v>
+      <c r="H17" t="n">
+        <v>322524</v>
       </c>
       <c r="I17" t="n">
         <v>1.82</v>
       </c>
-      <c r="J17" t="s">
-        <v>249</v>
+      <c r="J17" t="n">
+        <v>259195</v>
       </c>
       <c r="K17" t="n">
         <v>1.43</v>
       </c>
-      <c r="L17" t="s">
-        <v>250</v>
+      <c r="L17" t="n">
+        <v>303517</v>
       </c>
       <c r="M17" t="n">
         <v>1.64</v>
       </c>
-      <c r="N17" t="s">
-        <v>251</v>
+      <c r="N17" t="n">
+        <v>282767</v>
       </c>
       <c r="O17" t="n">
         <v>1.52</v>
       </c>
-      <c r="P17" t="s">
-        <v>252</v>
+      <c r="P17" t="n">
+        <v>301031</v>
       </c>
       <c r="Q17" t="n">
         <v>1.55</v>
       </c>
-      <c r="R17" t="s">
-        <v>253</v>
+      <c r="R17" t="n">
+        <v>274607</v>
       </c>
       <c r="S17" t="n">
         <v>1.39</v>
       </c>
-      <c r="T17" t="s">
-        <v>254</v>
+      <c r="T17" t="n">
+        <v>263762</v>
       </c>
       <c r="U17" t="n">
         <v>1.32</v>
       </c>
-      <c r="V17" t="s">
-        <v>255</v>
+      <c r="V17" t="n">
+        <v>205375</v>
       </c>
       <c r="W17" t="n">
         <v>1.04</v>
       </c>
-      <c r="X17" t="s">
-        <v>256</v>
+      <c r="X17" t="n">
+        <v>324555</v>
       </c>
       <c r="Y17" t="n">
         <v>1.63</v>
       </c>
-      <c r="Z17" t="s">
-        <v>257</v>
+      <c r="Z17" t="n">
+        <v>167953</v>
       </c>
       <c r="AA17" t="n">
         <v>0.83</v>
       </c>
-      <c r="AB17" t="s">
-        <v>258</v>
+      <c r="AB17" t="n">
+        <v>199559</v>
       </c>
       <c r="AC17" t="n">
         <v>0.96</v>
       </c>
-      <c r="AD17" t="s">
-        <v>259</v>
+      <c r="AD17" t="n">
+        <v>210071</v>
       </c>
       <c r="AE17" t="n">
         <v>1.04</v>
       </c>
-      <c r="AF17" t="s">
-        <v>260</v>
+      <c r="AF17" t="n">
+        <v>332737</v>
       </c>
       <c r="AG17" t="n">
         <v>1.64</v>
@@ -4186,100 +2197,100 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B18" t="s">
-        <v>262</v>
+        <v>48</v>
+      </c>
+      <c r="B18" t="n">
+        <v>125586</v>
       </c>
       <c r="C18" t="n">
         <v>0.77</v>
       </c>
-      <c r="D18" t="s">
-        <v>263</v>
+      <c r="D18" t="n">
+        <v>128130</v>
       </c>
       <c r="E18" t="n">
         <v>0.76</v>
       </c>
-      <c r="F18" t="s">
-        <v>264</v>
+      <c r="F18" t="n">
+        <v>142408</v>
       </c>
       <c r="G18" t="n">
         <v>0.85</v>
       </c>
-      <c r="H18" t="s">
-        <v>265</v>
+      <c r="H18" t="n">
+        <v>193002</v>
       </c>
       <c r="I18" t="n">
         <v>1.09</v>
       </c>
-      <c r="J18" t="s">
-        <v>266</v>
+      <c r="J18" t="n">
+        <v>160034</v>
       </c>
       <c r="K18" t="n">
         <v>0.89</v>
       </c>
-      <c r="L18" t="s">
-        <v>267</v>
+      <c r="L18" t="n">
+        <v>179847</v>
       </c>
       <c r="M18" t="n">
         <v>0.97</v>
       </c>
-      <c r="N18" t="s">
-        <v>268</v>
+      <c r="N18" t="n">
+        <v>157411</v>
       </c>
       <c r="O18" t="n">
         <v>0.85</v>
       </c>
-      <c r="P18" t="s">
-        <v>269</v>
+      <c r="P18" t="n">
+        <v>191727</v>
       </c>
       <c r="Q18" t="n">
         <v>0.99</v>
       </c>
-      <c r="R18" t="s">
-        <v>270</v>
+      <c r="R18" t="n">
+        <v>156812</v>
       </c>
       <c r="S18" t="n">
         <v>0.8</v>
       </c>
-      <c r="T18" t="s">
-        <v>271</v>
+      <c r="T18" t="n">
+        <v>143866</v>
       </c>
       <c r="U18" t="n">
         <v>0.72</v>
       </c>
-      <c r="V18" t="s">
-        <v>272</v>
+      <c r="V18" t="n">
+        <v>144980</v>
       </c>
       <c r="W18" t="n">
         <v>0.73</v>
       </c>
-      <c r="X18" t="s">
-        <v>273</v>
+      <c r="X18" t="n">
+        <v>183793</v>
       </c>
       <c r="Y18" t="n">
         <v>0.92</v>
       </c>
-      <c r="Z18" t="s">
-        <v>274</v>
+      <c r="Z18" t="n">
+        <v>144848</v>
       </c>
       <c r="AA18" t="n">
         <v>0.72</v>
       </c>
-      <c r="AB18" t="s">
-        <v>275</v>
+      <c r="AB18" t="n">
+        <v>120588</v>
       </c>
       <c r="AC18" t="n">
         <v>0.58</v>
       </c>
-      <c r="AD18" t="s">
-        <v>276</v>
+      <c r="AD18" t="n">
+        <v>63645</v>
       </c>
       <c r="AE18" t="n">
         <v>0.32</v>
       </c>
-      <c r="AF18" t="s">
-        <v>277</v>
+      <c r="AF18" t="n">
+        <v>124150</v>
       </c>
       <c r="AG18" t="n">
         <v>0.61</v>
@@ -4287,100 +2298,100 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B19" t="s">
-        <v>279</v>
+        <v>49</v>
+      </c>
+      <c r="B19" t="n">
+        <v>199833</v>
       </c>
       <c r="C19" t="n">
         <v>1.22</v>
       </c>
-      <c r="D19" t="s">
-        <v>280</v>
+      <c r="D19" t="n">
+        <v>59933</v>
       </c>
       <c r="E19" t="n">
         <v>0.36</v>
       </c>
-      <c r="F19" t="s">
-        <v>281</v>
+      <c r="F19" t="n">
+        <v>49941</v>
       </c>
       <c r="G19" t="n">
         <v>0.3</v>
       </c>
-      <c r="H19" t="s">
-        <v>282</v>
+      <c r="H19" t="n">
+        <v>249816</v>
       </c>
       <c r="I19" t="n">
         <v>1.41</v>
       </c>
-      <c r="J19" t="s">
-        <v>283</v>
+      <c r="J19" t="n">
+        <v>49937</v>
       </c>
       <c r="K19" t="n">
         <v>0.28</v>
       </c>
-      <c r="L19" t="s">
-        <v>281</v>
+      <c r="L19" t="n">
+        <v>49941</v>
       </c>
       <c r="M19" t="n">
         <v>0.27</v>
       </c>
-      <c r="N19" t="s">
-        <v>284</v>
+      <c r="N19" t="n">
+        <v>609627</v>
       </c>
       <c r="O19" t="n">
         <v>3.28</v>
       </c>
-      <c r="P19" t="s">
-        <v>285</v>
+      <c r="P19" t="n">
+        <v>349761</v>
       </c>
       <c r="Q19" t="n">
         <v>1.8</v>
       </c>
-      <c r="R19" t="s">
-        <v>286</v>
+      <c r="R19" t="n">
+        <v>749429</v>
       </c>
       <c r="S19" t="n">
         <v>3.8</v>
       </c>
-      <c r="T19" t="s">
-        <v>287</v>
+      <c r="T19" t="n">
+        <v>249752</v>
       </c>
       <c r="U19" t="n">
         <v>1.25</v>
       </c>
-      <c r="V19" t="s">
-        <v>288</v>
+      <c r="V19" t="n">
+        <v>849249</v>
       </c>
       <c r="W19" t="n">
         <v>4.3</v>
       </c>
-      <c r="X19" t="s">
-        <v>289</v>
+      <c r="X19" t="n">
+        <v>679561</v>
       </c>
       <c r="Y19" t="n">
         <v>3.4</v>
       </c>
-      <c r="Z19" t="s">
-        <v>290</v>
+      <c r="Z19" t="n">
+        <v>999334</v>
       </c>
       <c r="AA19" t="n">
         <v>4.94</v>
       </c>
-      <c r="AB19" t="s">
-        <v>291</v>
+      <c r="AB19" t="n">
+        <v>549488</v>
       </c>
       <c r="AC19" t="n">
         <v>2.65</v>
       </c>
-      <c r="AD19" t="s">
-        <v>292</v>
+      <c r="AD19" t="n">
+        <v>989070</v>
       </c>
       <c r="AE19" t="n">
         <v>4.92</v>
       </c>
-      <c r="AF19" t="s">
-        <v>293</v>
+      <c r="AF19" t="n">
+        <v>589654</v>
       </c>
       <c r="AG19" t="n">
         <v>2.9</v>
@@ -4388,100 +2399,100 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B20" t="s">
-        <v>295</v>
+        <v>50</v>
+      </c>
+      <c r="B20" t="n">
+        <v>139107</v>
       </c>
       <c r="C20" t="n">
         <v>0.85</v>
       </c>
-      <c r="D20" t="s">
-        <v>296</v>
+      <c r="D20" t="n">
+        <v>194543</v>
       </c>
       <c r="E20" t="n">
         <v>1.15</v>
       </c>
-      <c r="F20" t="s">
-        <v>297</v>
+      <c r="F20" t="n">
+        <v>202445</v>
       </c>
       <c r="G20" t="n">
         <v>1.21</v>
       </c>
-      <c r="H20" t="s">
-        <v>298</v>
+      <c r="H20" t="n">
+        <v>229380</v>
       </c>
       <c r="I20" t="n">
         <v>1.29</v>
       </c>
-      <c r="J20" t="s">
-        <v>299</v>
+      <c r="J20" t="n">
+        <v>178713</v>
       </c>
       <c r="K20" t="n">
         <v>0.99</v>
       </c>
-      <c r="L20" t="s">
-        <v>300</v>
+      <c r="L20" t="n">
+        <v>190127</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
       </c>
-      <c r="N20" t="s">
-        <v>301</v>
+      <c r="N20" t="n">
+        <v>178920</v>
       </c>
       <c r="O20" t="n">
         <v>0.96</v>
       </c>
-      <c r="P20" t="s">
-        <v>302</v>
+      <c r="P20" t="n">
+        <v>202219</v>
       </c>
       <c r="Q20" t="n">
         <v>1.04</v>
       </c>
-      <c r="R20" t="s">
-        <v>303</v>
+      <c r="R20" t="n">
+        <v>167793</v>
       </c>
       <c r="S20" t="n">
         <v>0.85</v>
       </c>
-      <c r="T20" t="s">
-        <v>304</v>
+      <c r="T20" t="n">
+        <v>127470</v>
       </c>
       <c r="U20" t="n">
         <v>0.64</v>
       </c>
-      <c r="V20" t="s">
-        <v>305</v>
+      <c r="V20" t="n">
+        <v>104674</v>
       </c>
       <c r="W20" t="n">
         <v>0.53</v>
       </c>
-      <c r="X20" t="s">
-        <v>306</v>
+      <c r="X20" t="n">
+        <v>123637</v>
       </c>
       <c r="Y20" t="n">
         <v>0.62</v>
       </c>
-      <c r="Z20" t="s">
-        <v>307</v>
+      <c r="Z20" t="n">
+        <v>69851</v>
       </c>
       <c r="AA20" t="n">
         <v>0.35</v>
       </c>
-      <c r="AB20" t="s">
-        <v>308</v>
+      <c r="AB20" t="n">
+        <v>127774</v>
       </c>
       <c r="AC20" t="n">
         <v>0.62</v>
       </c>
-      <c r="AD20" t="s">
-        <v>309</v>
+      <c r="AD20" t="n">
+        <v>114626</v>
       </c>
       <c r="AE20" t="n">
         <v>0.57</v>
       </c>
-      <c r="AF20" t="s">
-        <v>310</v>
+      <c r="AF20" t="n">
+        <v>107644</v>
       </c>
       <c r="AG20" t="n">
         <v>0.53</v>
@@ -4489,100 +2500,100 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B21" t="s">
-        <v>312</v>
+        <v>51</v>
+      </c>
+      <c r="B21" t="n">
+        <v>22216</v>
       </c>
       <c r="C21" t="n">
         <v>0.14</v>
       </c>
-      <c r="D21" t="s">
-        <v>313</v>
+      <c r="D21" t="n">
+        <v>29538</v>
       </c>
       <c r="E21" t="n">
         <v>0.18</v>
       </c>
-      <c r="F21" t="s">
-        <v>314</v>
+      <c r="F21" t="n">
+        <v>25725</v>
       </c>
       <c r="G21" t="n">
         <v>0.15</v>
       </c>
-      <c r="H21" t="s">
-        <v>315</v>
+      <c r="H21" t="n">
+        <v>38895</v>
       </c>
       <c r="I21" t="n">
         <v>0.22</v>
       </c>
-      <c r="J21" t="s">
-        <v>316</v>
+      <c r="J21" t="n">
+        <v>26832</v>
       </c>
       <c r="K21" t="n">
         <v>0.15</v>
       </c>
-      <c r="L21" t="s">
-        <v>317</v>
+      <c r="L21" t="n">
+        <v>42059</v>
       </c>
       <c r="M21" t="n">
         <v>0.23</v>
       </c>
-      <c r="N21" t="s">
-        <v>318</v>
+      <c r="N21" t="n">
+        <v>37819</v>
       </c>
       <c r="O21" t="n">
         <v>0.2</v>
       </c>
-      <c r="P21" t="s">
-        <v>319</v>
+      <c r="P21" t="n">
+        <v>43929</v>
       </c>
       <c r="Q21" t="n">
         <v>0.23</v>
       </c>
-      <c r="R21" t="s">
-        <v>320</v>
+      <c r="R21" t="n">
+        <v>29375</v>
       </c>
       <c r="S21" t="n">
         <v>0.15</v>
       </c>
-      <c r="T21" t="s">
-        <v>321</v>
+      <c r="T21" t="n">
+        <v>48697</v>
       </c>
       <c r="U21" t="n">
         <v>0.24</v>
       </c>
-      <c r="V21" t="s">
-        <v>322</v>
+      <c r="V21" t="n">
+        <v>57674</v>
       </c>
       <c r="W21" t="n">
         <v>0.29</v>
       </c>
-      <c r="X21" t="s">
-        <v>323</v>
+      <c r="X21" t="n">
+        <v>72646</v>
       </c>
       <c r="Y21" t="n">
         <v>0.36</v>
       </c>
-      <c r="Z21" t="s">
-        <v>324</v>
+      <c r="Z21" t="n">
+        <v>46295</v>
       </c>
       <c r="AA21" t="n">
         <v>0.23</v>
       </c>
-      <c r="AB21" t="s">
-        <v>325</v>
+      <c r="AB21" t="n">
+        <v>49075</v>
       </c>
       <c r="AC21" t="n">
         <v>0.24</v>
       </c>
-      <c r="AD21" t="s">
-        <v>326</v>
+      <c r="AD21" t="n">
+        <v>24117</v>
       </c>
       <c r="AE21" t="n">
         <v>0.12</v>
       </c>
-      <c r="AF21" t="s">
-        <v>327</v>
+      <c r="AF21" t="n">
+        <v>30434</v>
       </c>
       <c r="AG21" t="n">
         <v>0.15</v>
@@ -4590,100 +2601,100 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B22" t="s">
-        <v>329</v>
+        <v>52</v>
+      </c>
+      <c r="B22" t="n">
+        <v>534003</v>
       </c>
       <c r="C22" t="n">
         <v>3.26</v>
       </c>
-      <c r="D22" t="s">
-        <v>330</v>
+      <c r="D22" t="n">
+        <v>528017</v>
       </c>
       <c r="E22" t="n">
         <v>3.13</v>
       </c>
-      <c r="F22" t="s">
-        <v>331</v>
+      <c r="F22" t="n">
+        <v>582705</v>
       </c>
       <c r="G22" t="n">
         <v>3.47</v>
       </c>
-      <c r="H22" t="s">
-        <v>332</v>
+      <c r="H22" t="n">
+        <v>692760</v>
       </c>
       <c r="I22" t="n">
         <v>3.9</v>
       </c>
-      <c r="J22" t="s">
-        <v>333</v>
+      <c r="J22" t="n">
+        <v>657929</v>
       </c>
       <c r="K22" t="n">
         <v>3.64</v>
       </c>
-      <c r="L22" t="s">
-        <v>334</v>
+      <c r="L22" t="n">
+        <v>740635</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
-      <c r="N22" t="s">
-        <v>335</v>
+      <c r="N22" t="n">
+        <v>642661</v>
       </c>
       <c r="O22" t="n">
         <v>3.46</v>
       </c>
-      <c r="P22" t="s">
-        <v>336</v>
+      <c r="P22" t="n">
+        <v>660834</v>
       </c>
       <c r="Q22" t="n">
         <v>3.41</v>
       </c>
-      <c r="R22" t="s">
-        <v>337</v>
+      <c r="R22" t="n">
+        <v>613073</v>
       </c>
       <c r="S22" t="n">
         <v>3.11</v>
       </c>
-      <c r="T22" t="s">
-        <v>338</v>
+      <c r="T22" t="n">
+        <v>559628</v>
       </c>
       <c r="U22" t="n">
         <v>2.8</v>
       </c>
-      <c r="V22" t="s">
-        <v>339</v>
+      <c r="V22" t="n">
+        <v>544521</v>
       </c>
       <c r="W22" t="n">
         <v>2.76</v>
       </c>
-      <c r="X22" t="s">
-        <v>340</v>
+      <c r="X22" t="n">
+        <v>646840</v>
       </c>
       <c r="Y22" t="n">
         <v>3.24</v>
       </c>
-      <c r="Z22" t="s">
-        <v>341</v>
+      <c r="Z22" t="n">
+        <v>522652</v>
       </c>
       <c r="AA22" t="n">
         <v>2.59</v>
       </c>
-      <c r="AB22" t="s">
-        <v>342</v>
+      <c r="AB22" t="n">
+        <v>536117</v>
       </c>
       <c r="AC22" t="n">
         <v>2.59</v>
       </c>
-      <c r="AD22" t="s">
-        <v>343</v>
+      <c r="AD22" t="n">
+        <v>458343</v>
       </c>
       <c r="AE22" t="n">
         <v>2.28</v>
       </c>
-      <c r="AF22" t="s">
-        <v>344</v>
+      <c r="AF22" t="n">
+        <v>566391</v>
       </c>
       <c r="AG22" t="n">
         <v>2.78</v>
@@ -4691,100 +2702,100 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B23" t="s">
-        <v>346</v>
+        <v>53</v>
+      </c>
+      <c r="B23" t="n">
+        <v>121260</v>
       </c>
       <c r="C23" t="n">
         <v>0.74</v>
       </c>
-      <c r="D23" t="s">
-        <v>347</v>
+      <c r="D23" t="n">
+        <v>116768</v>
       </c>
       <c r="E23" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="F23" t="s">
-        <v>348</v>
+      <c r="F23" t="n">
+        <v>98591</v>
       </c>
       <c r="G23" t="n">
         <v>0.59</v>
       </c>
-      <c r="H23" t="s">
-        <v>349</v>
+      <c r="H23" t="n">
+        <v>107885</v>
       </c>
       <c r="I23" t="n">
         <v>0.61</v>
       </c>
-      <c r="J23" t="s">
-        <v>350</v>
+      <c r="J23" t="n">
+        <v>86699</v>
       </c>
       <c r="K23" t="n">
         <v>0.48</v>
       </c>
-      <c r="L23" t="s">
-        <v>351</v>
+      <c r="L23" t="n">
+        <v>23043</v>
       </c>
       <c r="M23" t="n">
         <v>0.12</v>
       </c>
-      <c r="N23" t="s">
-        <v>352</v>
+      <c r="N23" t="n">
+        <v>30993</v>
       </c>
       <c r="O23" t="n">
         <v>0.17</v>
       </c>
-      <c r="P23" t="s">
-        <v>353</v>
+      <c r="P23" t="n">
+        <v>60791</v>
       </c>
       <c r="Q23" t="n">
         <v>0.31</v>
       </c>
-      <c r="R23" t="s">
-        <v>354</v>
+      <c r="R23" t="n">
+        <v>38434</v>
       </c>
       <c r="S23" t="n">
         <v>0.19</v>
       </c>
-      <c r="T23" t="s">
-        <v>355</v>
+      <c r="T23" t="n">
+        <v>47454</v>
       </c>
       <c r="U23" t="n">
         <v>0.24</v>
       </c>
-      <c r="V23" t="s">
-        <v>356</v>
+      <c r="V23" t="n">
+        <v>30884</v>
       </c>
       <c r="W23" t="n">
         <v>0.16</v>
       </c>
-      <c r="X23" t="s">
-        <v>357</v>
+      <c r="X23" t="n">
+        <v>36910</v>
       </c>
       <c r="Y23" t="n">
         <v>0.18</v>
       </c>
-      <c r="Z23" t="s">
-        <v>358</v>
+      <c r="Z23" t="n">
+        <v>62553</v>
       </c>
       <c r="AA23" t="n">
         <v>0.31</v>
       </c>
-      <c r="AB23" t="s">
-        <v>359</v>
+      <c r="AB23" t="n">
+        <v>62874</v>
       </c>
       <c r="AC23" t="n">
         <v>0.3</v>
       </c>
-      <c r="AD23" t="s">
-        <v>360</v>
+      <c r="AD23" t="n">
+        <v>64934</v>
       </c>
       <c r="AE23" t="n">
         <v>0.32</v>
       </c>
-      <c r="AF23" t="s">
-        <v>361</v>
+      <c r="AF23" t="n">
+        <v>93562</v>
       </c>
       <c r="AG23" t="n">
         <v>0.46</v>
@@ -4792,100 +2803,100 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B24" t="s">
-        <v>363</v>
+        <v>54</v>
+      </c>
+      <c r="B24" t="n">
+        <v>409379</v>
       </c>
       <c r="C24" t="n">
         <v>2.5</v>
       </c>
-      <c r="D24" t="s">
-        <v>364</v>
+      <c r="D24" t="n">
+        <v>431960</v>
       </c>
       <c r="E24" t="n">
         <v>2.56</v>
       </c>
-      <c r="F24" t="s">
-        <v>365</v>
+      <c r="F24" t="n">
+        <v>349519</v>
       </c>
       <c r="G24" t="n">
         <v>2.08</v>
       </c>
-      <c r="H24" t="s">
-        <v>366</v>
+      <c r="H24" t="n">
+        <v>428880</v>
       </c>
       <c r="I24" t="n">
         <v>2.42</v>
       </c>
-      <c r="J24" t="s">
-        <v>367</v>
+      <c r="J24" t="n">
+        <v>371774</v>
       </c>
       <c r="K24" t="n">
         <v>2.06</v>
       </c>
-      <c r="L24" t="s">
-        <v>368</v>
+      <c r="L24" t="n">
+        <v>482221</v>
       </c>
       <c r="M24" t="n">
         <v>2.6</v>
       </c>
-      <c r="N24" t="s">
-        <v>369</v>
+      <c r="N24" t="n">
+        <v>520075</v>
       </c>
       <c r="O24" t="n">
         <v>2.8</v>
       </c>
-      <c r="P24" t="s">
-        <v>370</v>
+      <c r="P24" t="n">
+        <v>565176</v>
       </c>
       <c r="Q24" t="n">
         <v>2.92</v>
       </c>
-      <c r="R24" t="s">
-        <v>371</v>
+      <c r="R24" t="n">
+        <v>435843</v>
       </c>
       <c r="S24" t="n">
         <v>2.21</v>
       </c>
-      <c r="T24" t="s">
-        <v>372</v>
+      <c r="T24" t="n">
+        <v>437380</v>
       </c>
       <c r="U24" t="n">
         <v>2.19</v>
       </c>
-      <c r="V24" t="s">
-        <v>373</v>
+      <c r="V24" t="n">
+        <v>414506</v>
       </c>
       <c r="W24" t="n">
         <v>2.1</v>
       </c>
-      <c r="X24" t="s">
-        <v>374</v>
+      <c r="X24" t="n">
+        <v>438150</v>
       </c>
       <c r="Y24" t="n">
         <v>2.19</v>
       </c>
-      <c r="Z24" t="s">
-        <v>375</v>
+      <c r="Z24" t="n">
+        <v>353437</v>
       </c>
       <c r="AA24" t="n">
         <v>1.75</v>
       </c>
-      <c r="AB24" t="s">
-        <v>376</v>
+      <c r="AB24" t="n">
+        <v>366294</v>
       </c>
       <c r="AC24" t="n">
         <v>1.77</v>
       </c>
-      <c r="AD24" t="s">
-        <v>377</v>
+      <c r="AD24" t="n">
+        <v>300250</v>
       </c>
       <c r="AE24" t="n">
         <v>1.49</v>
       </c>
-      <c r="AF24" t="s">
-        <v>378</v>
+      <c r="AF24" t="n">
+        <v>391995</v>
       </c>
       <c r="AG24" t="n">
         <v>1.93</v>
@@ -4893,58 +2904,58 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B25" t="s">
-        <v>380</v>
+        <v>55</v>
+      </c>
+      <c r="B25" t="n">
+        <v>28761</v>
       </c>
       <c r="C25" t="n">
         <v>0.18</v>
       </c>
-      <c r="D25" t="s">
-        <v>381</v>
+      <c r="D25" t="n">
+        <v>18629</v>
       </c>
       <c r="E25" t="n">
         <v>0.11</v>
       </c>
-      <c r="F25" t="s">
-        <v>382</v>
+      <c r="F25" t="n">
+        <v>40032</v>
       </c>
       <c r="G25" t="n">
         <v>0.24</v>
       </c>
-      <c r="H25" t="s">
-        <v>383</v>
+      <c r="H25" t="n">
+        <v>44173</v>
       </c>
       <c r="I25" t="n">
         <v>0.25</v>
       </c>
-      <c r="J25" t="s">
-        <v>384</v>
+      <c r="J25" t="n">
+        <v>36546</v>
       </c>
       <c r="K25" t="n">
         <v>0.2</v>
       </c>
-      <c r="L25" t="s">
-        <v>238</v>
+      <c r="L25" t="n">
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
-      <c r="N25" t="s">
-        <v>238</v>
+      <c r="N25" t="n">
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
-      <c r="P25" t="s">
-        <v>238</v>
+      <c r="P25" t="n">
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
-      <c r="R25" t="s">
-        <v>385</v>
+      <c r="R25" t="n">
+        <v>1997</v>
       </c>
       <c r="S25" t="n">
         <v>0.01</v>
@@ -4955,8 +2966,8 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s"/>
-      <c r="Z25" t="s">
-        <v>238</v>
+      <c r="Z25" t="n">
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -4970,100 +2981,100 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B26" t="s">
-        <v>387</v>
+        <v>56</v>
+      </c>
+      <c r="B26" t="n">
+        <v>390701</v>
       </c>
       <c r="C26" t="n">
         <v>2.38</v>
       </c>
-      <c r="D26" t="s">
-        <v>388</v>
+      <c r="D26" t="n">
+        <v>390339</v>
       </c>
       <c r="E26" t="n">
         <v>2.31</v>
       </c>
-      <c r="F26" t="s">
-        <v>389</v>
+      <c r="F26" t="n">
+        <v>389978</v>
       </c>
       <c r="G26" t="n">
         <v>2.32</v>
       </c>
-      <c r="H26" t="s">
-        <v>390</v>
+      <c r="H26" t="n">
+        <v>389617</v>
       </c>
       <c r="I26" t="n">
         <v>2.2</v>
       </c>
-      <c r="J26" t="s">
-        <v>391</v>
+      <c r="J26" t="n">
+        <v>389256</v>
       </c>
       <c r="K26" t="n">
         <v>2.16</v>
       </c>
-      <c r="L26" t="s">
-        <v>392</v>
+      <c r="L26" t="n">
+        <v>388895</v>
       </c>
       <c r="M26" t="n">
         <v>2.1</v>
       </c>
-      <c r="N26" t="s">
-        <v>393</v>
+      <c r="N26" t="n">
+        <v>437248</v>
       </c>
       <c r="O26" t="n">
         <v>2.36</v>
       </c>
-      <c r="P26" t="s">
-        <v>394</v>
+      <c r="P26" t="n">
+        <v>474170</v>
       </c>
       <c r="Q26" t="n">
         <v>2.45</v>
       </c>
-      <c r="R26" t="s">
-        <v>395</v>
+      <c r="R26" t="n">
+        <v>800496</v>
       </c>
       <c r="S26" t="n">
         <v>4.06</v>
       </c>
-      <c r="T26" t="s">
-        <v>396</v>
+      <c r="T26" t="n">
+        <v>800014</v>
       </c>
       <c r="U26" t="n">
         <v>4</v>
       </c>
-      <c r="V26" t="s">
-        <v>397</v>
+      <c r="V26" t="n">
+        <v>873536</v>
       </c>
       <c r="W26" t="n">
         <v>4.43</v>
       </c>
-      <c r="X26" t="s">
-        <v>398</v>
+      <c r="X26" t="n">
+        <v>872799</v>
       </c>
       <c r="Y26" t="n">
         <v>4.37</v>
       </c>
-      <c r="Z26" t="s">
-        <v>399</v>
+      <c r="Z26" t="n">
+        <v>872060</v>
       </c>
       <c r="AA26" t="n">
         <v>4.31</v>
       </c>
-      <c r="AB26" t="s">
-        <v>400</v>
+      <c r="AB26" t="n">
+        <v>871334</v>
       </c>
       <c r="AC26" t="n">
         <v>4.21</v>
       </c>
-      <c r="AD26" t="s">
-        <v>401</v>
+      <c r="AD26" t="n">
+        <v>870596</v>
       </c>
       <c r="AE26" t="n">
         <v>4.33</v>
       </c>
-      <c r="AF26" t="s">
-        <v>402</v>
+      <c r="AF26" t="n">
+        <v>869853</v>
       </c>
       <c r="AG26" t="n">
         <v>4.28</v>
@@ -5071,100 +3082,100 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B27" t="s">
-        <v>404</v>
+        <v>57</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5614492</v>
       </c>
       <c r="C27" t="n">
         <v>34.26</v>
       </c>
-      <c r="D27" t="s">
-        <v>405</v>
+      <c r="D27" t="n">
+        <v>5687254</v>
       </c>
       <c r="E27" t="n">
         <v>33.7</v>
       </c>
-      <c r="F27" t="s">
-        <v>406</v>
+      <c r="F27" t="n">
+        <v>5819974</v>
       </c>
       <c r="G27" t="n">
         <v>34.65</v>
       </c>
-      <c r="H27" t="s">
-        <v>407</v>
+      <c r="H27" t="n">
+        <v>6317363</v>
       </c>
       <c r="I27" t="n">
         <v>35.6</v>
       </c>
-      <c r="J27" t="s">
-        <v>408</v>
+      <c r="J27" t="n">
+        <v>6635961</v>
       </c>
       <c r="K27" t="n">
         <v>36.74</v>
       </c>
-      <c r="L27" t="s">
-        <v>409</v>
+      <c r="L27" t="n">
+        <v>6623755</v>
       </c>
       <c r="M27" t="n">
         <v>35.75</v>
       </c>
-      <c r="N27" t="s">
-        <v>410</v>
+      <c r="N27" t="n">
+        <v>7051457</v>
       </c>
       <c r="O27" t="n">
         <v>37.98</v>
       </c>
-      <c r="P27" t="s">
-        <v>411</v>
+      <c r="P27" t="n">
+        <v>7616978</v>
       </c>
       <c r="Q27" t="n">
         <v>39.3</v>
       </c>
-      <c r="R27" t="s">
-        <v>412</v>
+      <c r="R27" t="n">
+        <v>7778430</v>
       </c>
       <c r="S27" t="n">
         <v>39.46</v>
       </c>
-      <c r="T27" t="s">
-        <v>413</v>
+      <c r="T27" t="n">
+        <v>7615818</v>
       </c>
       <c r="U27" t="n">
         <v>38.12</v>
       </c>
-      <c r="V27" t="s">
-        <v>414</v>
+      <c r="V27" t="n">
+        <v>8310366</v>
       </c>
       <c r="W27" t="n">
         <v>42.12</v>
       </c>
-      <c r="X27" t="s">
-        <v>415</v>
+      <c r="X27" t="n">
+        <v>8277568</v>
       </c>
       <c r="Y27" t="n">
         <v>41.45</v>
       </c>
-      <c r="Z27" t="s">
-        <v>416</v>
+      <c r="Z27" t="n">
+        <v>8462038</v>
       </c>
       <c r="AA27" t="n">
         <v>41.86</v>
       </c>
-      <c r="AB27" t="s">
-        <v>417</v>
+      <c r="AB27" t="n">
+        <v>8516598</v>
       </c>
       <c r="AC27" t="n">
         <v>41.13</v>
       </c>
-      <c r="AD27" t="s">
-        <v>418</v>
+      <c r="AD27" t="n">
+        <v>8556244</v>
       </c>
       <c r="AE27" t="n">
         <v>42.56</v>
       </c>
-      <c r="AF27" t="s">
-        <v>419</v>
+      <c r="AF27" t="n">
+        <v>8664083</v>
       </c>
       <c r="AG27" t="n">
         <v>42.58</v>
@@ -5172,100 +3183,100 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B28" t="s">
-        <v>421</v>
+        <v>58</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6038919</v>
       </c>
       <c r="C28" t="n">
         <v>36.85</v>
       </c>
-      <c r="D28" t="s">
-        <v>421</v>
+      <c r="D28" t="n">
+        <v>6038919</v>
       </c>
       <c r="E28" t="n">
         <v>35.78</v>
       </c>
-      <c r="F28" t="s">
-        <v>421</v>
+      <c r="F28" t="n">
+        <v>6038919</v>
       </c>
       <c r="G28" t="n">
         <v>35.95</v>
       </c>
-      <c r="H28" t="s">
-        <v>421</v>
+      <c r="H28" t="n">
+        <v>6038919</v>
       </c>
       <c r="I28" t="n">
         <v>34.03</v>
       </c>
-      <c r="J28" t="s">
-        <v>421</v>
+      <c r="J28" t="n">
+        <v>6038919</v>
       </c>
       <c r="K28" t="n">
         <v>33.43</v>
       </c>
-      <c r="L28" t="s">
-        <v>421</v>
+      <c r="L28" t="n">
+        <v>6038919</v>
       </c>
       <c r="M28" t="n">
         <v>32.6</v>
       </c>
-      <c r="N28" t="s">
-        <v>422</v>
+      <c r="N28" t="n">
+        <v>6159697</v>
       </c>
       <c r="O28" t="n">
         <v>33.18</v>
       </c>
-      <c r="P28" t="s">
-        <v>422</v>
+      <c r="P28" t="n">
+        <v>6159697</v>
       </c>
       <c r="Q28" t="n">
         <v>31.78</v>
       </c>
-      <c r="R28" t="s">
-        <v>422</v>
+      <c r="R28" t="n">
+        <v>6159697</v>
       </c>
       <c r="S28" t="n">
         <v>31.25</v>
       </c>
-      <c r="T28" t="s">
-        <v>422</v>
+      <c r="T28" t="n">
+        <v>6159697</v>
       </c>
       <c r="U28" t="n">
         <v>30.83</v>
       </c>
-      <c r="V28" t="s">
-        <v>423</v>
+      <c r="V28" t="n">
+        <v>6282891</v>
       </c>
       <c r="W28" t="n">
         <v>31.85</v>
       </c>
-      <c r="X28" t="s">
-        <v>423</v>
+      <c r="X28" t="n">
+        <v>6282891</v>
       </c>
       <c r="Y28" t="n">
         <v>31.46</v>
       </c>
-      <c r="Z28" t="s">
-        <v>423</v>
+      <c r="Z28" t="n">
+        <v>6282891</v>
       </c>
       <c r="AA28" t="n">
         <v>31.08</v>
       </c>
-      <c r="AB28" t="s">
-        <v>423</v>
+      <c r="AB28" t="n">
+        <v>6282891</v>
       </c>
       <c r="AC28" t="n">
         <v>30.34</v>
       </c>
-      <c r="AD28" t="s">
-        <v>424</v>
+      <c r="AD28" t="n">
+        <v>6345720</v>
       </c>
       <c r="AE28" t="n">
         <v>31.56</v>
       </c>
-      <c r="AF28" t="s">
-        <v>424</v>
+      <c r="AF28" t="n">
+        <v>6345720</v>
       </c>
       <c r="AG28" t="n">
         <v>31.19</v>
@@ -5273,100 +3284,100 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B29" t="s">
-        <v>426</v>
+        <v>59</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1946096</v>
       </c>
       <c r="C29" t="n">
         <v>11.88</v>
       </c>
-      <c r="D29" t="s">
-        <v>427</v>
+      <c r="D29" t="n">
+        <v>1887455</v>
       </c>
       <c r="E29" t="n">
         <v>11.18</v>
       </c>
-      <c r="F29" t="s">
-        <v>428</v>
+      <c r="F29" t="n">
+        <v>2125694</v>
       </c>
       <c r="G29" t="n">
         <v>12.66</v>
       </c>
-      <c r="H29" t="s">
-        <v>429</v>
+      <c r="H29" t="n">
+        <v>2510553</v>
       </c>
       <c r="I29" t="n">
         <v>14.15</v>
       </c>
-      <c r="J29" t="s">
-        <v>430</v>
+      <c r="J29" t="n">
+        <v>2750214</v>
       </c>
       <c r="K29" t="n">
         <v>15.23</v>
       </c>
-      <c r="L29" t="s">
-        <v>431</v>
+      <c r="L29" t="n">
+        <v>2422599</v>
       </c>
       <c r="M29" t="n">
         <v>13.08</v>
       </c>
-      <c r="N29" t="s">
-        <v>432</v>
+      <c r="N29" t="n">
+        <v>2780692</v>
       </c>
       <c r="O29" t="n">
         <v>14.98</v>
       </c>
-      <c r="P29" t="s">
-        <v>433</v>
+      <c r="P29" t="n">
+        <v>3120710</v>
       </c>
       <c r="Q29" t="n">
         <v>16.1</v>
       </c>
-      <c r="R29" t="s">
-        <v>434</v>
+      <c r="R29" t="n">
+        <v>3375827</v>
       </c>
       <c r="S29" t="n">
         <v>17.13</v>
       </c>
-      <c r="T29" t="s">
-        <v>435</v>
+      <c r="T29" t="n">
+        <v>2850088</v>
       </c>
       <c r="U29" t="n">
         <v>14.27</v>
       </c>
-      <c r="V29" t="s">
-        <v>436</v>
+      <c r="V29" t="n">
+        <v>3150709</v>
       </c>
       <c r="W29" t="n">
         <v>15.97</v>
       </c>
-      <c r="X29" t="s">
-        <v>437</v>
+      <c r="X29" t="n">
+        <v>3631000</v>
       </c>
       <c r="Y29" t="n">
         <v>18.18</v>
       </c>
-      <c r="Z29" t="s">
-        <v>438</v>
+      <c r="Z29" t="n">
+        <v>3976289</v>
       </c>
       <c r="AA29" t="n">
         <v>19.67</v>
       </c>
-      <c r="AB29" t="s">
-        <v>439</v>
+      <c r="AB29" t="n">
+        <v>3658249</v>
       </c>
       <c r="AC29" t="n">
         <v>17.67</v>
       </c>
-      <c r="AD29" t="s">
-        <v>440</v>
+      <c r="AD29" t="n">
+        <v>4014271</v>
       </c>
       <c r="AE29" t="n">
         <v>19.97</v>
       </c>
-      <c r="AF29" t="s">
-        <v>441</v>
+      <c r="AF29" t="n">
+        <v>4503375</v>
       </c>
       <c r="AG29" t="n">
         <v>22.13</v>
@@ -5374,7 +3385,7 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="1" t="s">
-        <v>442</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s"/>
       <c r="C30" t="s"/>
@@ -5392,50 +3403,50 @@
       <c r="O30" t="s"/>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="s">
-        <v>443</v>
+      <c r="R30" t="n">
+        <v>89239</v>
       </c>
       <c r="S30" t="n">
         <v>0.45</v>
       </c>
-      <c r="T30" t="s">
-        <v>444</v>
+      <c r="T30" t="n">
+        <v>101477</v>
       </c>
       <c r="U30" t="n">
         <v>0.51</v>
       </c>
-      <c r="V30" t="s">
-        <v>445</v>
+      <c r="V30" t="n">
+        <v>113699</v>
       </c>
       <c r="W30" t="n">
         <v>0.58</v>
       </c>
-      <c r="X30" t="s">
-        <v>446</v>
+      <c r="X30" t="n">
+        <v>125185</v>
       </c>
       <c r="Y30" t="n">
         <v>0.63</v>
       </c>
-      <c r="Z30" t="s">
-        <v>447</v>
+      <c r="Z30" t="n">
+        <v>125925</v>
       </c>
       <c r="AA30" t="n">
         <v>0.62</v>
       </c>
-      <c r="AB30" t="s">
-        <v>448</v>
+      <c r="AB30" t="n">
+        <v>132225</v>
       </c>
       <c r="AC30" t="n">
         <v>0.64</v>
       </c>
-      <c r="AD30" t="s">
-        <v>449</v>
+      <c r="AD30" t="n">
+        <v>153048</v>
       </c>
       <c r="AE30" t="n">
         <v>0.76</v>
       </c>
-      <c r="AF30" t="s">
-        <v>450</v>
+      <c r="AF30" t="n">
+        <v>170822</v>
       </c>
       <c r="AG30" t="n">
         <v>0.84</v>
@@ -5443,7 +3454,7 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="1" t="s">
-        <v>451</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s"/>
       <c r="C31" t="s"/>
@@ -5461,50 +3472,50 @@
       <c r="O31" t="s"/>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="s">
-        <v>452</v>
+      <c r="R31" t="n">
+        <v>362</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
-      <c r="T31" t="s">
-        <v>453</v>
+      <c r="T31" t="n">
+        <v>650</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
-      <c r="V31" t="s">
-        <v>454</v>
+      <c r="V31" t="n">
+        <v>310</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
-      <c r="X31" t="s">
-        <v>455</v>
+      <c r="X31" t="n">
+        <v>131</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
       </c>
-      <c r="Z31" t="s">
-        <v>456</v>
+      <c r="Z31" t="n">
+        <v>3459</v>
       </c>
       <c r="AA31" t="n">
         <v>0.02</v>
       </c>
-      <c r="AB31" t="s">
-        <v>457</v>
+      <c r="AB31" t="n">
+        <v>3469</v>
       </c>
       <c r="AC31" t="n">
         <v>0.02</v>
       </c>
-      <c r="AD31" t="s">
-        <v>458</v>
+      <c r="AD31" t="n">
+        <v>3965</v>
       </c>
       <c r="AE31" t="n">
         <v>0.02</v>
       </c>
-      <c r="AF31" t="s">
-        <v>459</v>
+      <c r="AF31" t="n">
+        <v>3496</v>
       </c>
       <c r="AG31" t="n">
         <v>0.02</v>
@@ -5512,100 +3523,100 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B32" t="s">
-        <v>461</v>
+        <v>62</v>
+      </c>
+      <c r="B32" t="n">
+        <v>13731718</v>
       </c>
       <c r="C32" t="n">
         <v>83.79000000000001</v>
       </c>
-      <c r="D32" t="s">
-        <v>462</v>
+      <c r="D32" t="n">
+        <v>13566005</v>
       </c>
       <c r="E32" t="n">
         <v>80.38</v>
       </c>
-      <c r="F32" t="s">
-        <v>463</v>
+      <c r="F32" t="n">
+        <v>13746849</v>
       </c>
       <c r="G32" t="n">
         <v>81.84</v>
       </c>
-      <c r="H32" t="s">
-        <v>464</v>
+      <c r="H32" t="n">
+        <v>14539149</v>
       </c>
       <c r="I32" t="n">
         <v>81.92</v>
       </c>
-      <c r="J32" t="s">
-        <v>465</v>
+      <c r="J32" t="n">
+        <v>14910655</v>
       </c>
       <c r="K32" t="n">
         <v>82.55</v>
       </c>
-      <c r="L32" t="s">
-        <v>466</v>
+      <c r="L32" t="n">
+        <v>14753150</v>
       </c>
       <c r="M32" t="n">
         <v>79.64</v>
       </c>
-      <c r="N32" t="s">
-        <v>467</v>
+      <c r="N32" t="n">
+        <v>15172677</v>
       </c>
       <c r="O32" t="n">
         <v>81.72</v>
       </c>
-      <c r="P32" t="s">
-        <v>468</v>
+      <c r="P32" t="n">
+        <v>15797970</v>
       </c>
       <c r="Q32" t="n">
         <v>81.51000000000001</v>
       </c>
-      <c r="R32" t="s">
-        <v>469</v>
+      <c r="R32" t="n">
+        <v>16105747</v>
       </c>
       <c r="S32" t="n">
         <v>81.70999999999999</v>
       </c>
-      <c r="T32" t="s">
-        <v>470</v>
+      <c r="T32" t="n">
+        <v>15760747</v>
       </c>
       <c r="U32" t="n">
         <v>78.89</v>
       </c>
-      <c r="V32" t="s">
-        <v>471</v>
+      <c r="V32" t="n">
+        <v>15981328</v>
       </c>
       <c r="W32" t="n">
         <v>81</v>
       </c>
-      <c r="X32" t="s">
-        <v>472</v>
+      <c r="X32" t="n">
+        <v>16000386</v>
       </c>
       <c r="Y32" t="n">
         <v>80.12</v>
       </c>
-      <c r="Z32" t="s">
-        <v>473</v>
+      <c r="Z32" t="n">
+        <v>16363447</v>
       </c>
       <c r="AA32" t="n">
         <v>80.94</v>
       </c>
-      <c r="AB32" t="s">
-        <v>474</v>
+      <c r="AB32" t="n">
+        <v>16172720</v>
       </c>
       <c r="AC32" t="n">
         <v>78.09999999999999</v>
       </c>
-      <c r="AD32" t="s">
-        <v>475</v>
+      <c r="AD32" t="n">
+        <v>16205886</v>
       </c>
       <c r="AE32" t="n">
         <v>80.61</v>
       </c>
-      <c r="AF32" t="s">
-        <v>476</v>
+      <c r="AF32" t="n">
+        <v>16396123</v>
       </c>
       <c r="AG32" t="n">
         <v>80.58</v>
@@ -5613,100 +3624,100 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B33" t="s">
-        <v>478</v>
+        <v>63</v>
+      </c>
+      <c r="B33" t="n">
+        <v>13550313</v>
       </c>
       <c r="C33" t="n">
         <v>82.69</v>
       </c>
-      <c r="D33" t="s">
-        <v>479</v>
+      <c r="D33" t="n">
+        <v>13415294</v>
       </c>
       <c r="E33" t="n">
         <v>79.48999999999999</v>
       </c>
-      <c r="F33" t="s">
-        <v>480</v>
+      <c r="F33" t="n">
+        <v>13595845</v>
       </c>
       <c r="G33" t="n">
         <v>80.95</v>
       </c>
-      <c r="H33" t="s">
-        <v>481</v>
+      <c r="H33" t="n">
+        <v>14366079</v>
       </c>
       <c r="I33" t="n">
         <v>80.95</v>
       </c>
-      <c r="J33" t="s">
-        <v>482</v>
+      <c r="J33" t="n">
+        <v>14736417</v>
       </c>
       <c r="K33" t="n">
         <v>81.58</v>
       </c>
-      <c r="L33" t="s">
-        <v>483</v>
+      <c r="L33" t="n">
+        <v>14590856</v>
       </c>
       <c r="M33" t="n">
         <v>78.76000000000001</v>
       </c>
-      <c r="N33" t="s">
-        <v>484</v>
+      <c r="N33" t="n">
+        <v>15010652</v>
       </c>
       <c r="O33" t="n">
         <v>80.84999999999999</v>
       </c>
-      <c r="P33" t="s">
-        <v>485</v>
+      <c r="P33" t="n">
+        <v>15642277</v>
       </c>
       <c r="Q33" t="n">
         <v>80.7</v>
       </c>
-      <c r="R33" t="s">
-        <v>486</v>
+      <c r="R33" t="n">
+        <v>15951548</v>
       </c>
       <c r="S33" t="n">
         <v>80.92</v>
       </c>
-      <c r="T33" t="s">
-        <v>487</v>
+      <c r="T33" t="n">
+        <v>15618415</v>
       </c>
       <c r="U33" t="n">
         <v>78.17</v>
       </c>
-      <c r="V33" t="s">
-        <v>488</v>
+      <c r="V33" t="n">
+        <v>15827753</v>
       </c>
       <c r="W33" t="n">
         <v>80.22</v>
       </c>
-      <c r="X33" t="s">
-        <v>489</v>
+      <c r="X33" t="n">
+        <v>15849944</v>
       </c>
       <c r="Y33" t="n">
         <v>79.37</v>
       </c>
-      <c r="Z33" t="s">
-        <v>490</v>
+      <c r="Z33" t="n">
+        <v>16215311</v>
       </c>
       <c r="AA33" t="n">
         <v>80.20999999999999</v>
       </c>
-      <c r="AB33" t="s">
-        <v>491</v>
+      <c r="AB33" t="n">
+        <v>16036888</v>
       </c>
       <c r="AC33" t="n">
         <v>77.45</v>
       </c>
-      <c r="AD33" t="s">
-        <v>492</v>
+      <c r="AD33" t="n">
+        <v>16081234</v>
       </c>
       <c r="AE33" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="AF33" t="s">
-        <v>493</v>
+      <c r="AF33" t="n">
+        <v>16264603</v>
       </c>
       <c r="AG33" t="n">
         <v>79.94</v>
@@ -5714,169 +3725,169 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B34" t="s">
-        <v>238</v>
+        <v>64</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
       </c>
       <c r="C34" t="s"/>
-      <c r="D34" t="s">
-        <v>238</v>
+      <c r="D34" t="n">
+        <v>0</v>
       </c>
       <c r="E34" t="s"/>
-      <c r="F34" t="s">
-        <v>238</v>
+      <c r="F34" t="n">
+        <v>0</v>
       </c>
       <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>238</v>
+      <c r="H34" t="n">
+        <v>0</v>
       </c>
       <c r="I34" t="s"/>
-      <c r="J34" t="s">
-        <v>238</v>
+      <c r="J34" t="n">
+        <v>0</v>
       </c>
       <c r="K34" t="s"/>
-      <c r="L34" t="s">
-        <v>238</v>
+      <c r="L34" t="n">
+        <v>0</v>
       </c>
       <c r="M34" t="s"/>
-      <c r="N34" t="s">
-        <v>238</v>
+      <c r="N34" t="n">
+        <v>0</v>
       </c>
       <c r="O34" t="s"/>
-      <c r="P34" t="s">
-        <v>238</v>
+      <c r="P34" t="n">
+        <v>0</v>
       </c>
       <c r="Q34" t="s"/>
-      <c r="R34" t="s">
-        <v>238</v>
+      <c r="R34" t="n">
+        <v>0</v>
       </c>
       <c r="S34" t="s"/>
-      <c r="T34" t="s">
-        <v>238</v>
+      <c r="T34" t="n">
+        <v>0</v>
       </c>
       <c r="U34" t="s"/>
-      <c r="V34" t="s">
-        <v>238</v>
+      <c r="V34" t="n">
+        <v>0</v>
       </c>
       <c r="W34" t="s"/>
-      <c r="X34" t="s">
-        <v>238</v>
+      <c r="X34" t="n">
+        <v>0</v>
       </c>
       <c r="Y34" t="s"/>
-      <c r="Z34" t="s">
-        <v>238</v>
+      <c r="Z34" t="n">
+        <v>0</v>
       </c>
       <c r="AA34" t="s"/>
-      <c r="AB34" t="s">
-        <v>238</v>
+      <c r="AB34" t="n">
+        <v>0</v>
       </c>
       <c r="AC34" t="s"/>
-      <c r="AD34" t="s">
-        <v>238</v>
+      <c r="AD34" t="n">
+        <v>0</v>
       </c>
       <c r="AE34" t="s"/>
-      <c r="AF34" t="s">
-        <v>238</v>
+      <c r="AF34" t="n">
+        <v>0</v>
       </c>
       <c r="AG34" t="s"/>
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B35" t="s">
-        <v>496</v>
+        <v>65</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1499835</v>
       </c>
       <c r="C35" t="n">
         <v>9.15</v>
       </c>
-      <c r="D35" t="s">
-        <v>497</v>
+      <c r="D35" t="n">
+        <v>1571033</v>
       </c>
       <c r="E35" t="n">
         <v>9.31</v>
       </c>
-      <c r="F35" t="s">
-        <v>497</v>
+      <c r="F35" t="n">
+        <v>1571033</v>
       </c>
       <c r="G35" t="n">
         <v>9.35</v>
       </c>
-      <c r="H35" t="s">
-        <v>497</v>
+      <c r="H35" t="n">
+        <v>1571033</v>
       </c>
       <c r="I35" t="n">
         <v>8.85</v>
       </c>
-      <c r="J35" t="s">
-        <v>497</v>
+      <c r="J35" t="n">
+        <v>1571033</v>
       </c>
       <c r="K35" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="L35" t="s">
-        <v>498</v>
+      <c r="L35" t="n">
+        <v>1682345</v>
       </c>
       <c r="M35" t="n">
         <v>9.08</v>
       </c>
-      <c r="N35" t="s">
-        <v>498</v>
+      <c r="N35" t="n">
+        <v>1682345</v>
       </c>
       <c r="O35" t="n">
         <v>9.06</v>
       </c>
-      <c r="P35" t="s">
-        <v>498</v>
+      <c r="P35" t="n">
+        <v>1682345</v>
       </c>
       <c r="Q35" t="n">
         <v>8.68</v>
       </c>
-      <c r="R35" t="s">
-        <v>498</v>
+      <c r="R35" t="n">
+        <v>1682345</v>
       </c>
       <c r="S35" t="n">
         <v>8.529999999999999</v>
       </c>
-      <c r="T35" t="s">
-        <v>499</v>
+      <c r="T35" t="n">
+        <v>1821603</v>
       </c>
       <c r="U35" t="n">
         <v>9.119999999999999</v>
       </c>
-      <c r="V35" t="s">
-        <v>499</v>
+      <c r="V35" t="n">
+        <v>1821603</v>
       </c>
       <c r="W35" t="n">
         <v>9.23</v>
       </c>
-      <c r="X35" t="s">
-        <v>499</v>
+      <c r="X35" t="n">
+        <v>1821603</v>
       </c>
       <c r="Y35" t="n">
         <v>9.119999999999999</v>
       </c>
-      <c r="Z35" t="s">
-        <v>499</v>
+      <c r="Z35" t="n">
+        <v>1821603</v>
       </c>
       <c r="AA35" t="n">
         <v>9.01</v>
       </c>
-      <c r="AB35" t="s">
-        <v>500</v>
+      <c r="AB35" t="n">
+        <v>1960876</v>
       </c>
       <c r="AC35" t="n">
         <v>9.470000000000001</v>
       </c>
-      <c r="AD35" t="s">
-        <v>500</v>
+      <c r="AD35" t="n">
+        <v>1960876</v>
       </c>
       <c r="AE35" t="n">
         <v>9.75</v>
       </c>
-      <c r="AF35" t="s">
-        <v>500</v>
+      <c r="AF35" t="n">
+        <v>1960876</v>
       </c>
       <c r="AG35" t="n">
         <v>9.640000000000001</v>
@@ -5884,100 +3895,100 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B36" t="s">
-        <v>502</v>
+        <v>66</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1127396</v>
       </c>
       <c r="C36" t="n">
         <v>6.88</v>
       </c>
-      <c r="D36" t="s">
-        <v>503</v>
+      <c r="D36" t="n">
+        <v>1787638</v>
       </c>
       <c r="E36" t="n">
         <v>10.59</v>
       </c>
-      <c r="F36" t="s">
-        <v>504</v>
+      <c r="F36" t="n">
+        <v>1519812</v>
       </c>
       <c r="G36" t="n">
         <v>9.050000000000001</v>
       </c>
-      <c r="H36" t="s">
-        <v>505</v>
+      <c r="H36" t="n">
+        <v>1700449</v>
       </c>
       <c r="I36" t="n">
         <v>9.58</v>
       </c>
-      <c r="J36" t="s">
-        <v>506</v>
+      <c r="J36" t="n">
+        <v>1648612</v>
       </c>
       <c r="K36" t="n">
         <v>9.130000000000001</v>
       </c>
-      <c r="L36" t="s">
-        <v>507</v>
+      <c r="L36" t="n">
+        <v>2266967</v>
       </c>
       <c r="M36" t="n">
         <v>12.24</v>
       </c>
-      <c r="N36" t="s">
-        <v>508</v>
+      <c r="N36" t="n">
+        <v>1885848</v>
       </c>
       <c r="O36" t="n">
         <v>10.16</v>
       </c>
-      <c r="P36" t="s">
-        <v>509</v>
+      <c r="P36" t="n">
+        <v>2068617</v>
       </c>
       <c r="Q36" t="n">
         <v>10.67</v>
       </c>
-      <c r="R36" t="s">
-        <v>510</v>
+      <c r="R36" t="n">
+        <v>2089370</v>
       </c>
       <c r="S36" t="n">
         <v>10.6</v>
       </c>
-      <c r="T36" t="s">
-        <v>511</v>
+      <c r="T36" t="n">
+        <v>2710766</v>
       </c>
       <c r="U36" t="n">
         <v>13.57</v>
       </c>
-      <c r="V36" t="s">
-        <v>512</v>
+      <c r="V36" t="n">
+        <v>2242017</v>
       </c>
       <c r="W36" t="n">
         <v>11.36</v>
       </c>
-      <c r="X36" t="s">
-        <v>513</v>
+      <c r="X36" t="n">
+        <v>2461629</v>
       </c>
       <c r="Y36" t="n">
         <v>12.33</v>
       </c>
-      <c r="Z36" t="s">
-        <v>514</v>
+      <c r="Z36" t="n">
+        <v>2470844</v>
       </c>
       <c r="AA36" t="n">
         <v>12.22</v>
       </c>
-      <c r="AB36" t="s">
-        <v>515</v>
+      <c r="AB36" t="n">
+        <v>3151030</v>
       </c>
       <c r="AC36" t="n">
         <v>15.22</v>
       </c>
-      <c r="AD36" t="s">
-        <v>516</v>
+      <c r="AD36" t="n">
+        <v>2514312</v>
       </c>
       <c r="AE36" t="n">
         <v>12.51</v>
       </c>
-      <c r="AF36" t="s">
-        <v>517</v>
+      <c r="AF36" t="n">
+        <v>2569341</v>
       </c>
       <c r="AG36" t="n">
         <v>12.63</v>
@@ -5985,100 +3996,100 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B37" t="s">
-        <v>519</v>
+        <v>67</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2231669</v>
       </c>
       <c r="C37" t="n">
         <v>13.62</v>
       </c>
-      <c r="D37" t="s">
-        <v>520</v>
+      <c r="D37" t="n">
+        <v>2672600</v>
       </c>
       <c r="E37" t="n">
         <v>15.84</v>
       </c>
-      <c r="F37" t="s">
-        <v>521</v>
+      <c r="F37" t="n">
+        <v>2322509</v>
       </c>
       <c r="G37" t="n">
         <v>13.83</v>
       </c>
-      <c r="H37" t="s">
-        <v>522</v>
+      <c r="H37" t="n">
+        <v>2631135</v>
       </c>
       <c r="I37" t="n">
         <v>14.83</v>
       </c>
-      <c r="J37" t="s">
-        <v>523</v>
+      <c r="J37" t="n">
+        <v>2536190</v>
       </c>
       <c r="K37" t="n">
         <v>14.04</v>
       </c>
-      <c r="L37" t="s">
-        <v>524</v>
+      <c r="L37" t="n">
+        <v>2895786</v>
       </c>
       <c r="M37" t="n">
         <v>15.63</v>
       </c>
-      <c r="N37" t="s">
-        <v>525</v>
+      <c r="N37" t="n">
+        <v>2502333</v>
       </c>
       <c r="O37" t="n">
         <v>13.48</v>
       </c>
-      <c r="P37" t="s">
-        <v>526</v>
+      <c r="P37" t="n">
+        <v>2652681</v>
       </c>
       <c r="Q37" t="n">
         <v>13.69</v>
       </c>
-      <c r="R37" t="s">
-        <v>527</v>
+      <c r="R37" t="n">
+        <v>2398494</v>
       </c>
       <c r="S37" t="n">
         <v>12.17</v>
       </c>
-      <c r="T37" t="s">
-        <v>528</v>
+      <c r="T37" t="n">
+        <v>3505849</v>
       </c>
       <c r="U37" t="n">
         <v>17.55</v>
       </c>
-      <c r="V37" t="s">
-        <v>529</v>
+      <c r="V37" t="n">
+        <v>2830347</v>
       </c>
       <c r="W37" t="n">
         <v>14.35</v>
       </c>
-      <c r="X37" t="s">
-        <v>530</v>
+      <c r="X37" t="n">
+        <v>3040355</v>
       </c>
       <c r="Y37" t="n">
         <v>15.22</v>
       </c>
-      <c r="Z37" t="s">
-        <v>531</v>
+      <c r="Z37" t="n">
+        <v>2976457</v>
       </c>
       <c r="AA37" t="n">
         <v>14.72</v>
       </c>
-      <c r="AB37" t="s">
-        <v>532</v>
+      <c r="AB37" t="n">
+        <v>3362713</v>
       </c>
       <c r="AC37" t="n">
         <v>16.24</v>
       </c>
-      <c r="AD37" t="s">
-        <v>533</v>
+      <c r="AD37" t="n">
+        <v>2650785</v>
       </c>
       <c r="AE37" t="n">
         <v>13.18</v>
       </c>
-      <c r="AF37" t="s">
-        <v>534</v>
+      <c r="AF37" t="n">
+        <v>3644849</v>
       </c>
       <c r="AG37" t="n">
         <v>17.91</v>
@@ -6086,100 +4097,100 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B38" t="s">
-        <v>536</v>
+        <v>68</v>
+      </c>
+      <c r="B38" t="n">
+        <v>9672</v>
       </c>
       <c r="C38" t="n">
         <v>0.06</v>
       </c>
-      <c r="D38" t="s">
-        <v>537</v>
+      <c r="D38" t="n">
+        <v>9448</v>
       </c>
       <c r="E38" t="n">
         <v>0.06</v>
       </c>
-      <c r="F38" t="s">
-        <v>538</v>
+      <c r="F38" t="n">
+        <v>9373</v>
       </c>
       <c r="G38" t="n">
         <v>0.06</v>
       </c>
-      <c r="H38" t="s">
-        <v>539</v>
+      <c r="H38" t="n">
+        <v>9328</v>
       </c>
       <c r="I38" t="n">
         <v>0.05</v>
       </c>
-      <c r="J38" t="s">
-        <v>540</v>
+      <c r="J38" t="n">
+        <v>9183</v>
       </c>
       <c r="K38" t="n">
         <v>0.05</v>
       </c>
-      <c r="L38" t="s">
-        <v>541</v>
+      <c r="L38" t="n">
+        <v>9104</v>
       </c>
       <c r="M38" t="n">
         <v>0.05</v>
       </c>
-      <c r="N38" t="s">
-        <v>542</v>
+      <c r="N38" t="n">
+        <v>8957</v>
       </c>
       <c r="O38" t="n">
         <v>0.05</v>
       </c>
-      <c r="P38" t="s">
-        <v>543</v>
+      <c r="P38" t="n">
+        <v>8811</v>
       </c>
       <c r="Q38" t="n">
         <v>0.05</v>
       </c>
-      <c r="R38" t="s">
-        <v>544</v>
+      <c r="R38" t="n">
+        <v>8664</v>
       </c>
       <c r="S38" t="n">
         <v>0.04</v>
       </c>
-      <c r="T38" t="s">
-        <v>545</v>
+      <c r="T38" t="n">
+        <v>8609</v>
       </c>
       <c r="U38" t="n">
         <v>0.04</v>
       </c>
-      <c r="V38" t="s">
-        <v>546</v>
+      <c r="V38" t="n">
+        <v>8461</v>
       </c>
       <c r="W38" t="n">
         <v>0.04</v>
       </c>
-      <c r="X38" t="s">
-        <v>547</v>
+      <c r="X38" t="n">
+        <v>8523</v>
       </c>
       <c r="Y38" t="n">
         <v>0.04</v>
       </c>
-      <c r="Z38" t="s">
-        <v>548</v>
+      <c r="Z38" t="n">
+        <v>8392</v>
       </c>
       <c r="AA38" t="n">
         <v>0.04</v>
       </c>
-      <c r="AB38" t="s">
-        <v>549</v>
+      <c r="AB38" t="n">
+        <v>9726</v>
       </c>
       <c r="AC38" t="n">
         <v>0.05</v>
       </c>
-      <c r="AD38" t="s">
-        <v>550</v>
+      <c r="AD38" t="n">
+        <v>9381</v>
       </c>
       <c r="AE38" t="n">
         <v>0.05</v>
       </c>
-      <c r="AF38" t="s">
-        <v>541</v>
+      <c r="AF38" t="n">
+        <v>9104</v>
       </c>
       <c r="AG38" t="n">
         <v>0.04</v>
@@ -6187,100 +4198,100 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B39" t="s">
-        <v>552</v>
+        <v>69</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3320000</v>
       </c>
       <c r="C39" t="n">
         <v>20.26</v>
       </c>
-      <c r="D39" t="s">
-        <v>553</v>
+      <c r="D39" t="n">
+        <v>3189962</v>
       </c>
       <c r="E39" t="n">
         <v>18.9</v>
       </c>
-      <c r="F39" t="s">
-        <v>553</v>
+      <c r="F39" t="n">
+        <v>3189962</v>
       </c>
       <c r="G39" t="n">
         <v>18.99</v>
       </c>
-      <c r="H39" t="s">
-        <v>553</v>
+      <c r="H39" t="n">
+        <v>3189962</v>
       </c>
       <c r="I39" t="n">
         <v>17.97</v>
       </c>
-      <c r="J39" t="s">
-        <v>553</v>
+      <c r="J39" t="n">
+        <v>3189962</v>
       </c>
       <c r="K39" t="n">
         <v>17.66</v>
       </c>
-      <c r="L39" t="s">
-        <v>553</v>
+      <c r="L39" t="n">
+        <v>3189962</v>
       </c>
       <c r="M39" t="n">
         <v>17.22</v>
       </c>
-      <c r="N39" t="s">
-        <v>553</v>
+      <c r="N39" t="n">
+        <v>3189962</v>
       </c>
       <c r="O39" t="n">
         <v>17.18</v>
       </c>
-      <c r="P39" t="s">
-        <v>553</v>
+      <c r="P39" t="n">
+        <v>3189962</v>
       </c>
       <c r="Q39" t="n">
         <v>16.46</v>
       </c>
-      <c r="R39" t="s">
-        <v>553</v>
+      <c r="R39" t="n">
+        <v>3189962</v>
       </c>
       <c r="S39" t="n">
         <v>16.18</v>
       </c>
-      <c r="T39" t="s">
-        <v>553</v>
+      <c r="T39" t="n">
+        <v>3189962</v>
       </c>
       <c r="U39" t="n">
         <v>15.97</v>
       </c>
-      <c r="V39" t="s">
-        <v>553</v>
+      <c r="V39" t="n">
+        <v>3189962</v>
       </c>
       <c r="W39" t="n">
         <v>16.17</v>
       </c>
-      <c r="X39" t="s">
-        <v>554</v>
+      <c r="X39" t="n">
+        <v>3185793</v>
       </c>
       <c r="Y39" t="n">
         <v>15.95</v>
       </c>
-      <c r="Z39" t="s">
-        <v>554</v>
+      <c r="Z39" t="n">
+        <v>3185793</v>
       </c>
       <c r="AA39" t="n">
         <v>15.76</v>
       </c>
-      <c r="AB39" t="s">
-        <v>554</v>
+      <c r="AB39" t="n">
+        <v>3185793</v>
       </c>
       <c r="AC39" t="n">
         <v>15.38</v>
       </c>
-      <c r="AD39" t="s">
-        <v>554</v>
+      <c r="AD39" t="n">
+        <v>3185793</v>
       </c>
       <c r="AE39" t="n">
         <v>15.85</v>
       </c>
-      <c r="AF39" t="s">
-        <v>554</v>
+      <c r="AF39" t="n">
+        <v>3185793</v>
       </c>
       <c r="AG39" t="n">
         <v>15.66</v>
@@ -6288,100 +4299,100 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B40" t="s">
-        <v>556</v>
+        <v>70</v>
+      </c>
+      <c r="B40" t="n">
+        <v>298781</v>
       </c>
       <c r="C40" t="n">
         <v>1.82</v>
       </c>
-      <c r="D40" t="s">
-        <v>557</v>
+      <c r="D40" t="n">
+        <v>304381</v>
       </c>
       <c r="E40" t="n">
         <v>1.8</v>
       </c>
-      <c r="F40" t="s">
-        <v>558</v>
+      <c r="F40" t="n">
+        <v>356502</v>
       </c>
       <c r="G40" t="n">
         <v>2.12</v>
       </c>
-      <c r="H40" t="s">
-        <v>559</v>
+      <c r="H40" t="n">
+        <v>429215</v>
       </c>
       <c r="I40" t="n">
         <v>2.42</v>
       </c>
-      <c r="J40" t="s">
-        <v>560</v>
+      <c r="J40" t="n">
+        <v>401545</v>
       </c>
       <c r="K40" t="n">
         <v>2.22</v>
       </c>
-      <c r="L40" t="s">
-        <v>561</v>
+      <c r="L40" t="n">
+        <v>325334</v>
       </c>
       <c r="M40" t="n">
         <v>1.76</v>
       </c>
-      <c r="N40" t="s">
-        <v>562</v>
+      <c r="N40" t="n">
+        <v>373266</v>
       </c>
       <c r="O40" t="n">
         <v>2.01</v>
       </c>
-      <c r="P40" t="s">
-        <v>563</v>
+      <c r="P40" t="n">
+        <v>396132</v>
       </c>
       <c r="Q40" t="n">
         <v>2.04</v>
       </c>
-      <c r="R40" t="s">
-        <v>564</v>
+      <c r="R40" t="n">
+        <v>295188</v>
       </c>
       <c r="S40" t="n">
         <v>1.5</v>
       </c>
-      <c r="T40" t="s">
-        <v>565</v>
+      <c r="T40" t="n">
+        <v>269261</v>
       </c>
       <c r="U40" t="n">
         <v>1.35</v>
       </c>
-      <c r="V40" t="s">
-        <v>566</v>
+      <c r="V40" t="n">
+        <v>360821</v>
       </c>
       <c r="W40" t="n">
         <v>1.83</v>
       </c>
-      <c r="X40" t="s">
-        <v>567</v>
+      <c r="X40" t="n">
+        <v>395027</v>
       </c>
       <c r="Y40" t="n">
         <v>1.98</v>
       </c>
-      <c r="Z40" t="s">
-        <v>568</v>
+      <c r="Z40" t="n">
+        <v>435873</v>
       </c>
       <c r="AA40" t="n">
         <v>2.16</v>
       </c>
-      <c r="AB40" t="s">
-        <v>569</v>
+      <c r="AB40" t="n">
+        <v>348082</v>
       </c>
       <c r="AC40" t="n">
         <v>1.68</v>
       </c>
-      <c r="AD40" t="s">
-        <v>570</v>
+      <c r="AD40" t="n">
+        <v>230916</v>
       </c>
       <c r="AE40" t="n">
         <v>1.15</v>
       </c>
-      <c r="AF40" t="s">
-        <v>571</v>
+      <c r="AF40" t="n">
+        <v>197262</v>
       </c>
       <c r="AG40" t="n">
         <v>0.97</v>
@@ -6389,52 +4400,52 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B41" t="s">
-        <v>573</v>
+        <v>71</v>
+      </c>
+      <c r="B41" t="n">
+        <v>7158</v>
       </c>
       <c r="C41" t="n">
         <v>0.04</v>
       </c>
-      <c r="D41" t="s">
-        <v>574</v>
+      <c r="D41" t="n">
+        <v>22044</v>
       </c>
       <c r="E41" t="n">
         <v>0.13</v>
       </c>
-      <c r="F41" t="s">
-        <v>575</v>
+      <c r="F41" t="n">
+        <v>23804</v>
       </c>
       <c r="G41" t="n">
         <v>0.14</v>
       </c>
-      <c r="H41" t="s">
-        <v>576</v>
+      <c r="H41" t="n">
+        <v>25221</v>
       </c>
       <c r="I41" t="n">
         <v>0.14</v>
       </c>
-      <c r="J41" t="s">
-        <v>577</v>
+      <c r="J41" t="n">
+        <v>36618</v>
       </c>
       <c r="K41" t="n">
         <v>0.2</v>
       </c>
-      <c r="L41" t="s">
-        <v>578</v>
+      <c r="L41" t="n">
+        <v>59197</v>
       </c>
       <c r="M41" t="n">
         <v>0.32</v>
       </c>
-      <c r="N41" t="s">
-        <v>579</v>
+      <c r="N41" t="n">
+        <v>68496</v>
       </c>
       <c r="O41" t="n">
         <v>0.37</v>
       </c>
-      <c r="P41" t="s">
-        <v>580</v>
+      <c r="P41" t="n">
+        <v>81262</v>
       </c>
       <c r="Q41" t="n">
         <v>0.42</v>
@@ -6458,52 +4469,52 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="B42" t="s">
-        <v>582</v>
+        <v>72</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1862</v>
       </c>
       <c r="C42" t="n">
         <v>0.01</v>
       </c>
-      <c r="D42" t="s">
-        <v>583</v>
+      <c r="D42" t="n">
+        <v>1879</v>
       </c>
       <c r="E42" t="n">
         <v>0.01</v>
       </c>
-      <c r="F42" t="s">
-        <v>584</v>
+      <c r="F42" t="n">
+        <v>2336</v>
       </c>
       <c r="G42" t="n">
         <v>0.01</v>
       </c>
-      <c r="H42" t="s">
-        <v>585</v>
+      <c r="H42" t="n">
+        <v>334</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="s">
-        <v>586</v>
+      <c r="J42" t="n">
+        <v>353</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
-      <c r="L42" t="s">
-        <v>587</v>
+      <c r="L42" t="n">
+        <v>360</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
-      <c r="N42" t="s">
-        <v>588</v>
+      <c r="N42" t="n">
+        <v>375</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
-      <c r="P42" t="s">
-        <v>589</v>
+      <c r="P42" t="n">
+        <v>385</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -6527,100 +4538,100 @@
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="B43" t="s">
-        <v>591</v>
+        <v>73</v>
+      </c>
+      <c r="B43" t="n">
+        <v>184000</v>
       </c>
       <c r="C43" t="n">
         <v>1.12</v>
       </c>
-      <c r="D43" t="s">
-        <v>592</v>
+      <c r="D43" t="n">
+        <v>394000</v>
       </c>
       <c r="E43" t="n">
         <v>2.33</v>
       </c>
-      <c r="F43" t="s">
-        <v>593</v>
+      <c r="F43" t="n">
+        <v>588000</v>
       </c>
       <c r="G43" t="n">
         <v>3.5</v>
       </c>
-      <c r="H43" t="s">
-        <v>594</v>
+      <c r="H43" t="n">
+        <v>412000</v>
       </c>
       <c r="I43" t="n">
         <v>2.32</v>
       </c>
-      <c r="J43" t="s">
-        <v>595</v>
+      <c r="J43" t="n">
+        <v>717000</v>
       </c>
       <c r="K43" t="n">
         <v>3.97</v>
       </c>
-      <c r="L43" t="s">
-        <v>596</v>
+      <c r="L43" t="n">
+        <v>650000</v>
       </c>
       <c r="M43" t="n">
         <v>3.51</v>
       </c>
-      <c r="N43" t="s">
-        <v>597</v>
+      <c r="N43" t="n">
+        <v>314000</v>
       </c>
       <c r="O43" t="n">
         <v>1.69</v>
       </c>
-      <c r="P43" t="s">
-        <v>596</v>
+      <c r="P43" t="n">
+        <v>650000</v>
       </c>
       <c r="Q43" t="n">
         <v>3.35</v>
       </c>
-      <c r="R43" t="s">
-        <v>598</v>
+      <c r="R43" t="n">
+        <v>403000</v>
       </c>
       <c r="S43" t="n">
         <v>2.04</v>
       </c>
-      <c r="T43" t="s">
-        <v>599</v>
+      <c r="T43" t="n">
+        <v>947000</v>
       </c>
       <c r="U43" t="n">
         <v>4.74</v>
       </c>
-      <c r="V43" t="s">
-        <v>600</v>
+      <c r="V43" t="n">
+        <v>541000</v>
       </c>
       <c r="W43" t="n">
         <v>2.74</v>
       </c>
-      <c r="X43" t="s">
-        <v>601</v>
+      <c r="X43" t="n">
+        <v>708000</v>
       </c>
       <c r="Y43" t="n">
         <v>3.55</v>
       </c>
-      <c r="Z43" t="s">
-        <v>602</v>
+      <c r="Z43" t="n">
+        <v>693000</v>
       </c>
       <c r="AA43" t="n">
         <v>3.43</v>
       </c>
-      <c r="AB43" t="s">
-        <v>603</v>
+      <c r="AB43" t="n">
+        <v>1107000</v>
       </c>
       <c r="AC43" t="n">
         <v>5.35</v>
       </c>
-      <c r="AD43" t="s">
-        <v>604</v>
+      <c r="AD43" t="n">
+        <v>703000</v>
       </c>
       <c r="AE43" t="n">
         <v>3.5</v>
       </c>
-      <c r="AF43" t="s">
-        <v>605</v>
+      <c r="AF43" t="n">
+        <v>950000</v>
       </c>
       <c r="AG43" t="n">
         <v>4.67</v>
@@ -6628,100 +4639,100 @@
     </row>
     <row r="44" spans="1:33">
       <c r="A44" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B44" t="s">
-        <v>421</v>
+        <v>74</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6038919</v>
       </c>
       <c r="C44" t="n">
         <v>36.85</v>
       </c>
-      <c r="D44" t="s">
-        <v>421</v>
+      <c r="D44" t="n">
+        <v>6038919</v>
       </c>
       <c r="E44" t="n">
         <v>35.78</v>
       </c>
-      <c r="F44" t="s">
-        <v>421</v>
+      <c r="F44" t="n">
+        <v>6038919</v>
       </c>
       <c r="G44" t="n">
         <v>35.95</v>
       </c>
-      <c r="H44" t="s">
-        <v>421</v>
+      <c r="H44" t="n">
+        <v>6038919</v>
       </c>
       <c r="I44" t="n">
         <v>34.03</v>
       </c>
-      <c r="J44" t="s">
-        <v>421</v>
+      <c r="J44" t="n">
+        <v>6038919</v>
       </c>
       <c r="K44" t="n">
         <v>33.43</v>
       </c>
-      <c r="L44" t="s">
-        <v>422</v>
+      <c r="L44" t="n">
+        <v>6159697</v>
       </c>
       <c r="M44" t="n">
         <v>33.25</v>
       </c>
-      <c r="N44" t="s">
-        <v>422</v>
+      <c r="N44" t="n">
+        <v>6159697</v>
       </c>
       <c r="O44" t="n">
         <v>33.18</v>
       </c>
-      <c r="P44" t="s">
-        <v>422</v>
+      <c r="P44" t="n">
+        <v>6159697</v>
       </c>
       <c r="Q44" t="n">
         <v>31.78</v>
       </c>
-      <c r="R44" t="s">
-        <v>422</v>
+      <c r="R44" t="n">
+        <v>6159697</v>
       </c>
       <c r="S44" t="n">
         <v>31.25</v>
       </c>
-      <c r="T44" t="s">
-        <v>423</v>
+      <c r="T44" t="n">
+        <v>6282891</v>
       </c>
       <c r="U44" t="n">
         <v>31.45</v>
       </c>
-      <c r="V44" t="s">
-        <v>423</v>
+      <c r="V44" t="n">
+        <v>6282891</v>
       </c>
       <c r="W44" t="n">
         <v>31.85</v>
       </c>
-      <c r="X44" t="s">
-        <v>423</v>
+      <c r="X44" t="n">
+        <v>6282891</v>
       </c>
       <c r="Y44" t="n">
         <v>31.46</v>
       </c>
-      <c r="Z44" t="s">
-        <v>423</v>
+      <c r="Z44" t="n">
+        <v>6282891</v>
       </c>
       <c r="AA44" t="n">
         <v>31.08</v>
       </c>
-      <c r="AB44" t="s">
-        <v>424</v>
+      <c r="AB44" t="n">
+        <v>6345720</v>
       </c>
       <c r="AC44" t="n">
         <v>30.64</v>
       </c>
-      <c r="AD44" t="s">
-        <v>424</v>
+      <c r="AD44" t="n">
+        <v>6345720</v>
       </c>
       <c r="AE44" t="n">
         <v>31.56</v>
       </c>
-      <c r="AF44" t="s">
-        <v>424</v>
+      <c r="AF44" t="n">
+        <v>6345720</v>
       </c>
       <c r="AG44" t="n">
         <v>31.19</v>
@@ -6729,28 +4740,28 @@
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B45" t="s">
-        <v>238</v>
+        <v>75</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
-      <c r="D45" t="s">
-        <v>238</v>
+      <c r="D45" t="n">
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
-      <c r="F45" t="s">
-        <v>238</v>
+      <c r="F45" t="n">
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="s">
-        <v>238</v>
+      <c r="H45" t="n">
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -6782,7 +4793,7 @@
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="1" t="s">
-        <v>608</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s"/>
       <c r="C46" t="s"/>
@@ -6800,50 +4811,50 @@
       <c r="O46" t="s"/>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
-      <c r="R46" t="s">
-        <v>609</v>
+      <c r="R46" t="n">
+        <v>19711954</v>
       </c>
       <c r="S46" t="n">
         <v>100</v>
       </c>
-      <c r="T46" t="s">
-        <v>610</v>
+      <c r="T46" t="n">
+        <v>19978924</v>
       </c>
       <c r="U46" t="n">
         <v>100</v>
       </c>
-      <c r="V46" t="s">
-        <v>611</v>
+      <c r="V46" t="n">
+        <v>19729475</v>
       </c>
       <c r="W46" t="n">
         <v>100</v>
       </c>
-      <c r="X46" t="s">
-        <v>612</v>
+      <c r="X46" t="n">
+        <v>19970871</v>
       </c>
       <c r="Y46" t="n">
         <v>100</v>
       </c>
-      <c r="Z46" t="s">
-        <v>613</v>
+      <c r="Z46" t="n">
+        <v>20216450</v>
       </c>
       <c r="AA46" t="n">
         <v>100</v>
       </c>
-      <c r="AB46" t="s">
-        <v>614</v>
+      <c r="AB46" t="n">
+        <v>20707212</v>
       </c>
       <c r="AC46" t="n">
         <v>100</v>
       </c>
-      <c r="AD46" t="s">
-        <v>615</v>
+      <c r="AD46" t="n">
+        <v>20104834</v>
       </c>
       <c r="AE46" t="n">
         <v>100</v>
       </c>
-      <c r="AF46" t="s">
-        <v>616</v>
+      <c r="AF46" t="n">
+        <v>20347150</v>
       </c>
       <c r="AG46" t="n">
         <v>100</v>
@@ -6851,100 +4862,100 @@
     </row>
     <row r="47" spans="1:33">
       <c r="A47" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="B47" t="s">
-        <v>618</v>
+        <v>77</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2655801</v>
       </c>
       <c r="C47" t="n">
         <v>16.21</v>
       </c>
-      <c r="D47" t="s">
-        <v>619</v>
+      <c r="D47" t="n">
+        <v>3310831</v>
       </c>
       <c r="E47" t="n">
         <v>19.62</v>
       </c>
-      <c r="F47" t="s">
-        <v>620</v>
+      <c r="F47" t="n">
+        <v>3049429</v>
       </c>
       <c r="G47" t="n">
         <v>18.16</v>
       </c>
-      <c r="H47" t="s">
-        <v>621</v>
+      <c r="H47" t="n">
+        <v>3207834</v>
       </c>
       <c r="I47" t="n">
         <v>18.08</v>
       </c>
-      <c r="J47" t="s">
-        <v>622</v>
+      <c r="J47" t="n">
+        <v>3152206</v>
       </c>
       <c r="K47" t="n">
         <v>17.45</v>
       </c>
-      <c r="L47" t="s">
-        <v>623</v>
+      <c r="L47" t="n">
+        <v>3772540</v>
       </c>
       <c r="M47" t="n">
         <v>20.36</v>
       </c>
-      <c r="N47" t="s">
-        <v>624</v>
+      <c r="N47" t="n">
+        <v>3393483</v>
       </c>
       <c r="O47" t="n">
         <v>18.28</v>
       </c>
-      <c r="P47" t="s">
-        <v>625</v>
+      <c r="P47" t="n">
+        <v>3584786</v>
       </c>
       <c r="Q47" t="n">
         <v>18.49</v>
       </c>
-      <c r="R47" t="s">
-        <v>626</v>
+      <c r="R47" t="n">
+        <v>3606207</v>
       </c>
       <c r="S47" t="n">
         <v>18.29</v>
       </c>
-      <c r="T47" t="s">
-        <v>627</v>
+      <c r="T47" t="n">
+        <v>4218177</v>
       </c>
       <c r="U47" t="n">
         <v>21.11</v>
       </c>
-      <c r="V47" t="s">
-        <v>628</v>
+      <c r="V47" t="n">
+        <v>3748147</v>
       </c>
       <c r="W47" t="n">
         <v>19</v>
       </c>
-      <c r="X47" t="s">
-        <v>629</v>
+      <c r="X47" t="n">
+        <v>3970485</v>
       </c>
       <c r="Y47" t="n">
         <v>19.88</v>
       </c>
-      <c r="Z47" t="s">
-        <v>630</v>
+      <c r="Z47" t="n">
+        <v>3853003</v>
       </c>
       <c r="AA47" t="n">
         <v>19.06</v>
       </c>
-      <c r="AB47" t="s">
-        <v>631</v>
+      <c r="AB47" t="n">
+        <v>4534492</v>
       </c>
       <c r="AC47" t="n">
         <v>21.9</v>
       </c>
-      <c r="AD47" t="s">
-        <v>632</v>
+      <c r="AD47" t="n">
+        <v>3898948</v>
       </c>
       <c r="AE47" t="n">
         <v>19.39</v>
       </c>
-      <c r="AF47" t="s">
-        <v>633</v>
+      <c r="AF47" t="n">
+        <v>3951027</v>
       </c>
       <c r="AG47" t="n">
         <v>19.42</v>
@@ -6952,100 +4963,100 @@
     </row>
     <row r="48" spans="1:33">
       <c r="A48" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B48" t="s">
-        <v>635</v>
+        <v>78</v>
+      </c>
+      <c r="B48" t="n">
+        <v>21763</v>
       </c>
       <c r="C48" t="n">
         <v>0.13</v>
       </c>
-      <c r="D48" t="s">
-        <v>635</v>
+      <c r="D48" t="n">
+        <v>21763</v>
       </c>
       <c r="E48" t="n">
         <v>0.13</v>
       </c>
-      <c r="F48" t="s">
-        <v>635</v>
+      <c r="F48" t="n">
+        <v>21763</v>
       </c>
       <c r="G48" t="n">
         <v>0.13</v>
       </c>
-      <c r="H48" t="s">
-        <v>636</v>
+      <c r="H48" t="n">
+        <v>26553</v>
       </c>
       <c r="I48" t="n">
         <v>0.15</v>
       </c>
-      <c r="J48" t="s">
-        <v>636</v>
+      <c r="J48" t="n">
+        <v>26553</v>
       </c>
       <c r="K48" t="n">
         <v>0.15</v>
       </c>
-      <c r="L48" t="s">
-        <v>636</v>
+      <c r="L48" t="n">
+        <v>26553</v>
       </c>
       <c r="M48" t="n">
         <v>0.14</v>
       </c>
-      <c r="N48" t="s">
-        <v>636</v>
+      <c r="N48" t="n">
+        <v>26553</v>
       </c>
       <c r="O48" t="n">
         <v>0.14</v>
       </c>
-      <c r="P48" t="s">
-        <v>637</v>
+      <c r="P48" t="n">
+        <v>28999</v>
       </c>
       <c r="Q48" t="n">
         <v>0.15</v>
       </c>
-      <c r="R48" t="s">
-        <v>637</v>
+      <c r="R48" t="n">
+        <v>28999</v>
       </c>
       <c r="S48" t="n">
         <v>0.15</v>
       </c>
-      <c r="T48" t="s">
-        <v>637</v>
+      <c r="T48" t="n">
+        <v>28999</v>
       </c>
       <c r="U48" t="n">
         <v>0.15</v>
       </c>
-      <c r="V48" t="s">
-        <v>638</v>
+      <c r="V48" t="n">
+        <v>31494</v>
       </c>
       <c r="W48" t="n">
         <v>0.16</v>
       </c>
-      <c r="X48" t="s">
-        <v>639</v>
+      <c r="X48" t="n">
+        <v>49272</v>
       </c>
       <c r="Y48" t="n">
         <v>0.25</v>
       </c>
-      <c r="Z48" t="s">
-        <v>639</v>
+      <c r="Z48" t="n">
+        <v>49272</v>
       </c>
       <c r="AA48" t="n">
         <v>0.24</v>
       </c>
-      <c r="AB48" t="s">
-        <v>639</v>
+      <c r="AB48" t="n">
+        <v>49272</v>
       </c>
       <c r="AC48" t="n">
         <v>0.24</v>
       </c>
-      <c r="AD48" t="s">
-        <v>639</v>
+      <c r="AD48" t="n">
+        <v>49272</v>
       </c>
       <c r="AE48" t="n">
         <v>0.25</v>
       </c>
-      <c r="AF48" t="s">
-        <v>640</v>
+      <c r="AF48" t="n">
+        <v>47112</v>
       </c>
       <c r="AG48" t="n">
         <v>0.23</v>
@@ -7053,100 +5064,100 @@
     </row>
     <row r="49" spans="1:33">
       <c r="A49" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B49" t="s">
-        <v>642</v>
+        <v>79</v>
+      </c>
+      <c r="B49" t="n">
+        <v>16387519</v>
       </c>
       <c r="C49" t="n">
         <v>100</v>
       </c>
-      <c r="D49" t="s">
-        <v>643</v>
+      <c r="D49" t="n">
+        <v>16876836</v>
       </c>
       <c r="E49" t="n">
         <v>100</v>
       </c>
-      <c r="F49" t="s">
-        <v>644</v>
+      <c r="F49" t="n">
+        <v>16796278</v>
       </c>
       <c r="G49" t="n">
         <v>100</v>
       </c>
-      <c r="H49" t="s">
-        <v>645</v>
+      <c r="H49" t="n">
+        <v>17746983</v>
       </c>
       <c r="I49" t="n">
         <v>100</v>
       </c>
-      <c r="J49" t="s">
-        <v>646</v>
+      <c r="J49" t="n">
+        <v>18062861</v>
       </c>
       <c r="K49" t="n">
         <v>100</v>
       </c>
-      <c r="L49" t="s">
-        <v>647</v>
+      <c r="L49" t="n">
+        <v>18525690</v>
       </c>
       <c r="M49" t="n">
         <v>100</v>
       </c>
-      <c r="N49" t="s">
-        <v>648</v>
+      <c r="N49" t="n">
+        <v>18566160</v>
       </c>
       <c r="O49" t="n">
         <v>100</v>
       </c>
-      <c r="P49" t="s">
-        <v>649</v>
+      <c r="P49" t="n">
+        <v>19382756</v>
       </c>
       <c r="Q49" t="n">
         <v>100</v>
       </c>
-      <c r="R49" t="s">
-        <v>609</v>
+      <c r="R49" t="n">
+        <v>19711954</v>
       </c>
       <c r="S49" t="n">
         <v>100</v>
       </c>
-      <c r="T49" t="s">
-        <v>610</v>
+      <c r="T49" t="n">
+        <v>19978924</v>
       </c>
       <c r="U49" t="n">
         <v>100</v>
       </c>
-      <c r="V49" t="s">
-        <v>611</v>
+      <c r="V49" t="n">
+        <v>19729475</v>
       </c>
       <c r="W49" t="n">
         <v>100</v>
       </c>
-      <c r="X49" t="s">
-        <v>612</v>
+      <c r="X49" t="n">
+        <v>19970871</v>
       </c>
       <c r="Y49" t="n">
         <v>100</v>
       </c>
-      <c r="Z49" t="s">
-        <v>613</v>
+      <c r="Z49" t="n">
+        <v>20216450</v>
       </c>
       <c r="AA49" t="n">
         <v>100</v>
       </c>
-      <c r="AB49" t="s">
-        <v>614</v>
+      <c r="AB49" t="n">
+        <v>20707212</v>
       </c>
       <c r="AC49" t="n">
         <v>100</v>
       </c>
-      <c r="AD49" t="s">
-        <v>615</v>
+      <c r="AD49" t="n">
+        <v>20104834</v>
       </c>
       <c r="AE49" t="n">
         <v>100</v>
       </c>
-      <c r="AF49" t="s">
-        <v>616</v>
+      <c r="AF49" t="n">
+        <v>20347150</v>
       </c>
       <c r="AG49" t="n">
         <v>100</v>
@@ -7154,100 +5165,100 @@
     </row>
     <row r="50" spans="1:33">
       <c r="A50" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="B50" t="s">
-        <v>651</v>
+        <v>80</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1186399</v>
       </c>
       <c r="C50" t="n">
         <v>7.24</v>
       </c>
-      <c r="D50" t="s">
-        <v>652</v>
+      <c r="D50" t="n">
+        <v>1171453</v>
       </c>
       <c r="E50" t="n">
         <v>6.94</v>
       </c>
-      <c r="F50" t="s">
-        <v>653</v>
+      <c r="F50" t="n">
+        <v>1187179</v>
       </c>
       <c r="G50" t="n">
         <v>7.07</v>
       </c>
-      <c r="H50" t="s">
-        <v>654</v>
+      <c r="H50" t="n">
+        <v>1190232</v>
       </c>
       <c r="I50" t="n">
         <v>6.71</v>
       </c>
-      <c r="J50" t="s">
-        <v>655</v>
+      <c r="J50" t="n">
+        <v>1190082</v>
       </c>
       <c r="K50" t="n">
         <v>6.59</v>
       </c>
-      <c r="L50" t="s">
-        <v>656</v>
+      <c r="L50" t="n">
+        <v>1189870</v>
       </c>
       <c r="M50" t="n">
         <v>6.42</v>
       </c>
-      <c r="N50" t="s">
-        <v>657</v>
+      <c r="N50" t="n">
+        <v>1190035</v>
       </c>
       <c r="O50" t="n">
         <v>6.41</v>
       </c>
-      <c r="P50" t="s">
-        <v>658</v>
+      <c r="P50" t="n">
+        <v>1183835</v>
       </c>
       <c r="Q50" t="n">
         <v>6.11</v>
       </c>
-      <c r="R50" t="s">
-        <v>659</v>
+      <c r="R50" t="n">
+        <v>1183684</v>
       </c>
       <c r="S50" t="n">
         <v>6</v>
       </c>
-      <c r="T50" t="s">
-        <v>659</v>
+      <c r="T50" t="n">
+        <v>1183684</v>
       </c>
       <c r="U50" t="n">
         <v>5.92</v>
       </c>
-      <c r="V50" t="s">
-        <v>660</v>
+      <c r="V50" t="n">
+        <v>1184054</v>
       </c>
       <c r="W50" t="n">
         <v>6</v>
       </c>
-      <c r="X50" t="s">
-        <v>661</v>
+      <c r="X50" t="n">
+        <v>1182891</v>
       </c>
       <c r="Y50" t="n">
         <v>5.92</v>
       </c>
-      <c r="Z50" t="s">
-        <v>662</v>
+      <c r="Z50" t="n">
+        <v>1182493</v>
       </c>
       <c r="AA50" t="n">
         <v>5.85</v>
       </c>
-      <c r="AB50" t="s">
-        <v>662</v>
+      <c r="AB50" t="n">
+        <v>1182493</v>
       </c>
       <c r="AC50" t="n">
         <v>5.71</v>
       </c>
-      <c r="AD50" t="s">
-        <v>662</v>
+      <c r="AD50" t="n">
+        <v>1182493</v>
       </c>
       <c r="AE50" t="n">
         <v>5.88</v>
       </c>
-      <c r="AF50" t="s">
-        <v>663</v>
+      <c r="AF50" t="n">
+        <v>1183309</v>
       </c>
       <c r="AG50" t="n">
         <v>5.82</v>
@@ -7255,100 +5266,100 @@
     </row>
     <row r="51" spans="1:33">
       <c r="A51" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="B51" t="s">
-        <v>665</v>
+        <v>81</v>
+      </c>
+      <c r="B51" t="n">
+        <v>12585</v>
       </c>
       <c r="C51" t="n">
         <v>0.08</v>
       </c>
-      <c r="D51" t="s">
-        <v>666</v>
+      <c r="D51" t="n">
+        <v>12338</v>
       </c>
       <c r="E51" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="F51" t="s">
-        <v>667</v>
+      <c r="F51" t="n">
+        <v>14683</v>
       </c>
       <c r="G51" t="n">
         <v>0.09</v>
       </c>
-      <c r="H51" t="s">
-        <v>668</v>
+      <c r="H51" t="n">
+        <v>10661</v>
       </c>
       <c r="I51" t="n">
         <v>0.06</v>
       </c>
-      <c r="J51" t="s">
-        <v>669</v>
+      <c r="J51" t="n">
+        <v>10626</v>
       </c>
       <c r="K51" t="n">
         <v>0.06</v>
       </c>
-      <c r="L51" t="s">
-        <v>670</v>
+      <c r="L51" t="n">
+        <v>10736</v>
       </c>
       <c r="M51" t="n">
         <v>0.06</v>
       </c>
-      <c r="N51" t="s">
-        <v>671</v>
+      <c r="N51" t="n">
+        <v>10569</v>
       </c>
       <c r="O51" t="n">
         <v>0.06</v>
       </c>
-      <c r="P51" t="s">
-        <v>672</v>
+      <c r="P51" t="n">
+        <v>7438</v>
       </c>
       <c r="Q51" t="n">
         <v>0.04</v>
       </c>
-      <c r="R51" t="s">
-        <v>673</v>
+      <c r="R51" t="n">
+        <v>7376</v>
       </c>
       <c r="S51" t="n">
         <v>0.04</v>
       </c>
-      <c r="T51" t="s">
-        <v>674</v>
+      <c r="T51" t="n">
+        <v>7240</v>
       </c>
       <c r="U51" t="n">
         <v>0.04</v>
       </c>
-      <c r="V51" t="s">
-        <v>675</v>
+      <c r="V51" t="n">
+        <v>7204</v>
       </c>
       <c r="W51" t="n">
         <v>0.04</v>
       </c>
-      <c r="X51" t="s">
-        <v>676</v>
+      <c r="X51" t="n">
+        <v>4283</v>
       </c>
       <c r="Y51" t="n">
         <v>0.02</v>
       </c>
-      <c r="Z51" t="s">
-        <v>677</v>
+      <c r="Z51" t="n">
+        <v>4728</v>
       </c>
       <c r="AA51" t="n">
         <v>0.02</v>
       </c>
-      <c r="AB51" t="s">
-        <v>678</v>
+      <c r="AB51" t="n">
+        <v>4669</v>
       </c>
       <c r="AC51" t="n">
         <v>0.02</v>
       </c>
-      <c r="AD51" t="s">
-        <v>679</v>
+      <c r="AD51" t="n">
+        <v>4859</v>
       </c>
       <c r="AE51" t="n">
         <v>0.02</v>
       </c>
-      <c r="AF51" t="s">
-        <v>680</v>
+      <c r="AF51" t="n">
+        <v>5098</v>
       </c>
       <c r="AG51" t="n">
         <v>0.03</v>
@@ -7356,100 +5367,100 @@
     </row>
     <row r="52" spans="1:33">
       <c r="A52" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="B52" t="s">
-        <v>682</v>
+        <v>82</v>
+      </c>
+      <c r="B52" t="n">
+        <v>181405</v>
       </c>
       <c r="C52" t="n">
         <v>1.11</v>
       </c>
-      <c r="D52" t="s">
-        <v>683</v>
+      <c r="D52" t="n">
+        <v>150711</v>
       </c>
       <c r="E52" t="n">
         <v>0.89</v>
       </c>
-      <c r="F52" t="s">
-        <v>684</v>
+      <c r="F52" t="n">
+        <v>151004</v>
       </c>
       <c r="G52" t="n">
         <v>0.9</v>
       </c>
-      <c r="H52" t="s">
-        <v>685</v>
+      <c r="H52" t="n">
+        <v>173070</v>
       </c>
       <c r="I52" t="n">
         <v>0.98</v>
       </c>
-      <c r="J52" t="s">
-        <v>686</v>
+      <c r="J52" t="n">
+        <v>174238</v>
       </c>
       <c r="K52" t="n">
         <v>0.96</v>
       </c>
-      <c r="L52" t="s">
-        <v>687</v>
+      <c r="L52" t="n">
+        <v>162294</v>
       </c>
       <c r="M52" t="n">
         <v>0.88</v>
       </c>
-      <c r="N52" t="s">
-        <v>688</v>
+      <c r="N52" t="n">
+        <v>162025</v>
       </c>
       <c r="O52" t="n">
         <v>0.87</v>
       </c>
-      <c r="P52" t="s">
-        <v>689</v>
+      <c r="P52" t="n">
+        <v>155693</v>
       </c>
       <c r="Q52" t="n">
         <v>0.8</v>
       </c>
-      <c r="R52" t="s">
-        <v>690</v>
+      <c r="R52" t="n">
+        <v>154199</v>
       </c>
       <c r="S52" t="n">
         <v>0.78</v>
       </c>
-      <c r="T52" t="s">
-        <v>691</v>
+      <c r="T52" t="n">
+        <v>142332</v>
       </c>
       <c r="U52" t="n">
         <v>0.71</v>
       </c>
-      <c r="V52" t="s">
-        <v>692</v>
+      <c r="V52" t="n">
+        <v>153575</v>
       </c>
       <c r="W52" t="n">
         <v>0.78</v>
       </c>
-      <c r="X52" t="s">
-        <v>693</v>
+      <c r="X52" t="n">
+        <v>150442</v>
       </c>
       <c r="Y52" t="n">
         <v>0.75</v>
       </c>
-      <c r="Z52" t="s">
-        <v>694</v>
+      <c r="Z52" t="n">
+        <v>148136</v>
       </c>
       <c r="AA52" t="n">
         <v>0.73</v>
       </c>
-      <c r="AB52" t="s">
-        <v>695</v>
+      <c r="AB52" t="n">
+        <v>135832</v>
       </c>
       <c r="AC52" t="n">
         <v>0.66</v>
       </c>
-      <c r="AD52" t="s">
-        <v>696</v>
+      <c r="AD52" t="n">
+        <v>124652</v>
       </c>
       <c r="AE52" t="n">
         <v>0.62</v>
       </c>
-      <c r="AF52" t="s">
-        <v>697</v>
+      <c r="AF52" t="n">
+        <v>131520</v>
       </c>
       <c r="AG52" t="n">
         <v>0.65</v>
@@ -7457,100 +5468,100 @@
     </row>
     <row r="53" spans="1:33">
       <c r="A53" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B53" t="s">
-        <v>699</v>
+        <v>83</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1528405</v>
       </c>
       <c r="C53" t="n">
         <v>9.33</v>
       </c>
-      <c r="D53" t="s">
-        <v>700</v>
+      <c r="D53" t="n">
+        <v>1523193</v>
       </c>
       <c r="E53" t="n">
         <v>9.029999999999999</v>
       </c>
-      <c r="F53" t="s">
-        <v>701</v>
+      <c r="F53" t="n">
+        <v>1529617</v>
       </c>
       <c r="G53" t="n">
         <v>9.109999999999999</v>
       </c>
-      <c r="H53" t="s">
-        <v>702</v>
+      <c r="H53" t="n">
+        <v>1507385</v>
       </c>
       <c r="I53" t="n">
         <v>8.49</v>
       </c>
-      <c r="J53" t="s">
-        <v>703</v>
+      <c r="J53" t="n">
+        <v>1503594</v>
       </c>
       <c r="K53" t="n">
         <v>8.32</v>
       </c>
-      <c r="L53" t="s">
-        <v>704</v>
+      <c r="L53" t="n">
+        <v>1505573</v>
       </c>
       <c r="M53" t="n">
         <v>8.130000000000001</v>
       </c>
-      <c r="N53" t="s">
-        <v>705</v>
+      <c r="N53" t="n">
+        <v>1507635</v>
       </c>
       <c r="O53" t="n">
         <v>8.119999999999999</v>
       </c>
-      <c r="P53" t="s">
-        <v>706</v>
+      <c r="P53" t="n">
+        <v>1516169</v>
       </c>
       <c r="Q53" t="n">
         <v>7.82</v>
       </c>
-      <c r="R53" t="s">
-        <v>707</v>
+      <c r="R53" t="n">
+        <v>1516837</v>
       </c>
       <c r="S53" t="n">
         <v>7.7</v>
       </c>
-      <c r="T53" t="s">
-        <v>708</v>
+      <c r="T53" t="n">
+        <v>1507411</v>
       </c>
       <c r="U53" t="n">
         <v>7.55</v>
       </c>
-      <c r="V53" t="s">
-        <v>709</v>
+      <c r="V53" t="n">
+        <v>1506130</v>
       </c>
       <c r="W53" t="n">
         <v>7.63</v>
       </c>
-      <c r="X53" t="s">
-        <v>710</v>
+      <c r="X53" t="n">
+        <v>1508856</v>
       </c>
       <c r="Y53" t="n">
         <v>7.56</v>
       </c>
-      <c r="Z53" t="s">
-        <v>711</v>
+      <c r="Z53" t="n">
+        <v>1382159</v>
       </c>
       <c r="AA53" t="n">
         <v>6.84</v>
       </c>
-      <c r="AB53" t="s">
-        <v>712</v>
+      <c r="AB53" t="n">
+        <v>1383462</v>
       </c>
       <c r="AC53" t="n">
         <v>6.68</v>
       </c>
-      <c r="AD53" t="s">
-        <v>713</v>
+      <c r="AD53" t="n">
+        <v>1384636</v>
       </c>
       <c r="AE53" t="n">
         <v>6.89</v>
       </c>
-      <c r="AF53" t="s">
-        <v>714</v>
+      <c r="AF53" t="n">
+        <v>1381686</v>
       </c>
       <c r="AG53" t="n">
         <v>6.79</v>
@@ -7558,100 +5569,100 @@
     </row>
     <row r="54" spans="1:33">
       <c r="A54" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="B54" t="s">
-        <v>716</v>
+        <v>84</v>
+      </c>
+      <c r="B54" t="n">
+        <v>14155850</v>
       </c>
       <c r="C54" t="n">
         <v>86.38</v>
       </c>
-      <c r="D54" t="s">
-        <v>717</v>
+      <c r="D54" t="n">
+        <v>14204236</v>
       </c>
       <c r="E54" t="n">
         <v>84.16</v>
       </c>
-      <c r="F54" t="s">
-        <v>718</v>
+      <c r="F54" t="n">
+        <v>14473769</v>
       </c>
       <c r="G54" t="n">
         <v>86.17</v>
       </c>
-      <c r="H54" t="s">
-        <v>719</v>
+      <c r="H54" t="n">
+        <v>15115848</v>
       </c>
       <c r="I54" t="n">
         <v>85.17</v>
       </c>
-      <c r="J54" t="s">
-        <v>720</v>
+      <c r="J54" t="n">
+        <v>15526671</v>
       </c>
       <c r="K54" t="n">
         <v>85.95999999999999</v>
       </c>
-      <c r="L54" t="s">
-        <v>721</v>
+      <c r="L54" t="n">
+        <v>15629904</v>
       </c>
       <c r="M54" t="n">
         <v>84.37</v>
       </c>
-      <c r="N54" t="s">
-        <v>722</v>
+      <c r="N54" t="n">
+        <v>16063827</v>
       </c>
       <c r="O54" t="n">
         <v>86.52</v>
       </c>
-      <c r="P54" t="s">
-        <v>723</v>
+      <c r="P54" t="n">
+        <v>16730075</v>
       </c>
       <c r="Q54" t="n">
         <v>86.31</v>
       </c>
-      <c r="R54" t="s">
-        <v>724</v>
+      <c r="R54" t="n">
+        <v>17313460</v>
       </c>
       <c r="S54" t="n">
         <v>87.83</v>
       </c>
-      <c r="T54" t="s">
-        <v>725</v>
+      <c r="T54" t="n">
+        <v>16473075</v>
       </c>
       <c r="U54" t="n">
         <v>82.45</v>
       </c>
-      <c r="V54" t="s">
-        <v>726</v>
+      <c r="V54" t="n">
+        <v>16899128</v>
       </c>
       <c r="W54" t="n">
         <v>85.65000000000001</v>
       </c>
-      <c r="X54" t="s">
-        <v>727</v>
+      <c r="X54" t="n">
+        <v>16930516</v>
       </c>
       <c r="Y54" t="n">
         <v>84.78</v>
       </c>
-      <c r="Z54" t="s">
-        <v>728</v>
+      <c r="Z54" t="n">
+        <v>17239993</v>
       </c>
       <c r="AA54" t="n">
         <v>85.28</v>
       </c>
-      <c r="AB54" t="s">
-        <v>729</v>
+      <c r="AB54" t="n">
+        <v>17344499</v>
       </c>
       <c r="AC54" t="n">
         <v>83.76000000000001</v>
       </c>
-      <c r="AD54" t="s">
-        <v>730</v>
+      <c r="AD54" t="n">
+        <v>17454049</v>
       </c>
       <c r="AE54" t="n">
         <v>86.81999999999999</v>
       </c>
-      <c r="AF54" t="s">
-        <v>731</v>
+      <c r="AF54" t="n">
+        <v>16702301</v>
       </c>
       <c r="AG54" t="n">
         <v>82.09</v>
@@ -7659,100 +5670,100 @@
     </row>
     <row r="55" spans="1:33">
       <c r="A55" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="B55" t="s">
-        <v>733</v>
+        <v>85</v>
+      </c>
+      <c r="B55" t="n">
+        <v>11484</v>
       </c>
       <c r="C55" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="D55" t="s">
-        <v>734</v>
+      <c r="D55" t="n">
+        <v>18526</v>
       </c>
       <c r="E55" t="n">
         <v>0.11</v>
       </c>
-      <c r="F55" t="s">
-        <v>735</v>
+      <c r="F55" t="n">
+        <v>19628</v>
       </c>
       <c r="G55" t="n">
         <v>0.12</v>
       </c>
-      <c r="H55" t="s">
-        <v>736</v>
+      <c r="H55" t="n">
+        <v>11998</v>
       </c>
       <c r="I55" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="J55" t="s">
-        <v>737</v>
+      <c r="J55" t="n">
+        <v>11507</v>
       </c>
       <c r="K55" t="n">
         <v>0.06</v>
       </c>
-      <c r="L55" t="s">
-        <v>738</v>
+      <c r="L55" t="n">
+        <v>17056</v>
       </c>
       <c r="M55" t="n">
         <v>0.09</v>
       </c>
-      <c r="N55" t="s">
-        <v>739</v>
+      <c r="N55" t="n">
+        <v>14817</v>
       </c>
       <c r="O55" t="n">
         <v>0.08</v>
       </c>
-      <c r="P55" t="s">
-        <v>740</v>
+      <c r="P55" t="n">
+        <v>12220</v>
       </c>
       <c r="Q55" t="n">
         <v>0.06</v>
       </c>
-      <c r="R55" t="s">
-        <v>741</v>
+      <c r="R55" t="n">
+        <v>7739</v>
       </c>
       <c r="S55" t="n">
         <v>0.04</v>
       </c>
-      <c r="T55" t="s">
-        <v>742</v>
+      <c r="T55" t="n">
+        <v>13271</v>
       </c>
       <c r="U55" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="V55" t="s">
-        <v>743</v>
+      <c r="V55" t="n">
+        <v>16242</v>
       </c>
       <c r="W55" t="n">
         <v>0.08</v>
       </c>
-      <c r="X55" t="s">
-        <v>744</v>
+      <c r="X55" t="n">
+        <v>16524</v>
       </c>
       <c r="Y55" t="n">
         <v>0.08</v>
       </c>
-      <c r="Z55" t="s">
-        <v>745</v>
+      <c r="Z55" t="n">
+        <v>14305</v>
       </c>
       <c r="AA55" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AB55" t="s">
-        <v>746</v>
+      <c r="AB55" t="n">
+        <v>14176</v>
       </c>
       <c r="AC55" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AD55" t="s">
-        <v>747</v>
+      <c r="AD55" t="n">
+        <v>19945</v>
       </c>
       <c r="AE55" t="n">
         <v>0.1</v>
       </c>
-      <c r="AF55" t="s">
-        <v>748</v>
+      <c r="AF55" t="n">
+        <v>15687</v>
       </c>
       <c r="AG55" t="n">
         <v>0.08</v>
@@ -7760,70 +5771,70 @@
     </row>
     <row r="56" spans="1:33">
       <c r="A56" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="B56" t="s">
-        <v>238</v>
+        <v>86</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
       </c>
       <c r="C56" t="s"/>
-      <c r="D56" t="s">
-        <v>238</v>
+      <c r="D56" t="n">
+        <v>0</v>
       </c>
       <c r="E56" t="s"/>
-      <c r="F56" t="s">
-        <v>238</v>
+      <c r="F56" t="n">
+        <v>0</v>
       </c>
       <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>238</v>
+      <c r="H56" t="n">
+        <v>0</v>
       </c>
       <c r="I56" t="s"/>
-      <c r="J56" t="s">
-        <v>238</v>
+      <c r="J56" t="n">
+        <v>0</v>
       </c>
       <c r="K56" t="s"/>
-      <c r="L56" t="s">
-        <v>238</v>
+      <c r="L56" t="n">
+        <v>0</v>
       </c>
       <c r="M56" t="s"/>
-      <c r="N56" t="s">
-        <v>238</v>
+      <c r="N56" t="n">
+        <v>0</v>
       </c>
       <c r="O56" t="s"/>
-      <c r="P56" t="s">
-        <v>238</v>
+      <c r="P56" t="n">
+        <v>0</v>
       </c>
       <c r="Q56" t="s"/>
-      <c r="R56" t="s">
-        <v>238</v>
+      <c r="R56" t="n">
+        <v>0</v>
       </c>
       <c r="S56" t="s"/>
-      <c r="T56" t="s">
-        <v>238</v>
+      <c r="T56" t="n">
+        <v>0</v>
       </c>
       <c r="U56" t="s"/>
-      <c r="V56" t="s">
-        <v>238</v>
+      <c r="V56" t="n">
+        <v>0</v>
       </c>
       <c r="W56" t="s"/>
-      <c r="X56" t="s">
-        <v>238</v>
+      <c r="X56" t="n">
+        <v>0</v>
       </c>
       <c r="Y56" t="s"/>
-      <c r="Z56" t="s">
-        <v>238</v>
+      <c r="Z56" t="n">
+        <v>0</v>
       </c>
       <c r="AA56" t="s"/>
-      <c r="AB56" t="s">
-        <v>238</v>
+      <c r="AB56" t="n">
+        <v>0</v>
       </c>
       <c r="AC56" t="s"/>
-      <c r="AD56" t="s">
-        <v>238</v>
+      <c r="AD56" t="n">
+        <v>0</v>
       </c>
       <c r="AE56" t="s"/>
-      <c r="AF56" t="s">
-        <v>238</v>
+      <c r="AF56" t="n">
+        <v>0</v>
       </c>
       <c r="AG56" t="s"/>
     </row>
